--- a/inputs/bip/subway.xlsx
+++ b/inputs/bip/subway.xlsx
@@ -1601,9 +1601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K147"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B147"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/inputs/bip/subway.xlsx
+++ b/inputs/bip/subway.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="23715" windowHeight="9525"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="20700" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Abiertos" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="330">
   <si>
     <t>METRO</t>
   </si>
@@ -65,9 +65,6 @@
     <t>ALCANTARA</t>
   </si>
   <si>
-    <t>Avda. Apoquindo Frente al 3885</t>
-  </si>
-  <si>
     <t>LAS CONDES</t>
   </si>
   <si>
@@ -77,150 +74,81 @@
     <t>ECUADOR</t>
   </si>
   <si>
-    <t>Avda. Libertador Bernardo O`Higgins Frente al 4620</t>
-  </si>
-  <si>
     <t>ESTACION CENTRAL</t>
   </si>
   <si>
     <t>EL GOLF</t>
   </si>
   <si>
-    <t>Avda. Apoquindo Frente al Nº3231</t>
-  </si>
-  <si>
     <t>ESCUELA MILITAR</t>
   </si>
   <si>
-    <t>Avda. Apoquindo Frente al 4502</t>
-  </si>
-  <si>
-    <t>Avda. Libertador Bernardo O`Higgins Frente al 3322</t>
-  </si>
-  <si>
     <t>LOS HEROES L1</t>
   </si>
   <si>
-    <t>Avda. Libertador Bernardo O`Higgins 1774</t>
-  </si>
-  <si>
     <t>SANTIAGO</t>
   </si>
   <si>
     <t>REPUBLICA</t>
   </si>
   <si>
-    <t>Avda. Libertador Bernardo O`Higgins 2275</t>
-  </si>
-  <si>
     <t>HERNANDO DE MAGALLANES</t>
   </si>
   <si>
-    <t>Avda. Apoquindo 7095</t>
-  </si>
-  <si>
     <t>LA MONEDA</t>
   </si>
   <si>
-    <t>Avda. Libertador Bernardo O`Higgins 1330</t>
-  </si>
-  <si>
     <t>LAS REJAS</t>
   </si>
   <si>
-    <t>Avda. Libertador Bernardo O`Higgins 6056</t>
-  </si>
-  <si>
     <t>LOS DOMINICOS</t>
   </si>
   <si>
-    <t>Avda. Apoquindo 8613</t>
-  </si>
-  <si>
     <t>LOS LEONES L1</t>
   </si>
   <si>
-    <t>Avda. Nueva Providencia 2249</t>
-  </si>
-  <si>
     <t>PROVIDENCIA</t>
   </si>
   <si>
     <t>MANQUEHUE</t>
   </si>
   <si>
-    <t>Avda. Apoquindo Frente al 5875</t>
-  </si>
-  <si>
     <t>MANUEL MONTT</t>
   </si>
   <si>
-    <t>Avda. Providencia 1337</t>
-  </si>
-  <si>
     <t>PADRE ALBERTO HURTADO</t>
   </si>
   <si>
-    <t>Avda. Libertador Bernardo O`Higgins Frente al 4102</t>
-  </si>
-  <si>
     <t>PAJARITOS</t>
   </si>
   <si>
-    <t>Avda. General Bonilla 5900</t>
-  </si>
-  <si>
     <t>LO PRADO</t>
   </si>
   <si>
     <t>PEDRO DE VALDIVIA</t>
   </si>
   <si>
-    <t>Avda. Providencia 1880</t>
-  </si>
-  <si>
     <t>SALVADOR</t>
   </si>
   <si>
-    <t>Avda. Providencia 700</t>
-  </si>
-  <si>
     <t>TOBALABA L1</t>
   </si>
   <si>
-    <t>Avda. Tobalaba 117</t>
-  </si>
-  <si>
     <t>UNION LATINOAMERICANA</t>
   </si>
   <si>
-    <t>Avda. Libertador Bernardo O`Higgins 2841</t>
-  </si>
-  <si>
     <t>SANTA LUCIA</t>
   </si>
   <si>
-    <t>Avda. Libertador Bernardo O´Higgins N°511</t>
-  </si>
-  <si>
     <t>UNIVERSIDAD CATOLICA</t>
   </si>
   <si>
-    <t>Avda. Libertador Bernardo O`Higgins 270</t>
-  </si>
-  <si>
     <t>UNIVERSIDAD DE CHILE</t>
   </si>
   <si>
-    <t>Avda. Libertador Bernardo O`Higgins 1020</t>
-  </si>
-  <si>
     <t>UNIVERSIDAD DE SANTIAGO</t>
   </si>
   <si>
-    <t>Avda. Libertador Bernardo O`Higgins Frente al 3702</t>
-  </si>
-  <si>
     <t>L2</t>
   </si>
   <si>
@@ -233,18 +161,12 @@
     <t>CEMENTERIOS</t>
   </si>
   <si>
-    <t>Avda. Recoleta 1502</t>
-  </si>
-  <si>
     <t>RECOLETA</t>
   </si>
   <si>
     <t>CERRO BLANCO</t>
   </si>
   <si>
-    <t>Avda. Recoleta 860</t>
-  </si>
-  <si>
     <t>CIUDAD DEL NINO</t>
   </si>
   <si>
@@ -257,21 +179,12 @@
     <t>DORSAL</t>
   </si>
   <si>
-    <t>Avda. Recoleta 3202</t>
-  </si>
-  <si>
     <t>EINSTEIN</t>
   </si>
   <si>
-    <t>Avda. Einstein 601</t>
-  </si>
-  <si>
     <t>EL LLANO</t>
   </si>
   <si>
-    <t>Gran Avda. Jose Miguel Carrera Frente al 3080</t>
-  </si>
-  <si>
     <t>FRANKLIN L2</t>
   </si>
   <si>
@@ -311,21 +224,12 @@
     <t>PARQUE O'HIGGINS</t>
   </si>
   <si>
-    <t>Avda. Manuel Antonio Matta 1704</t>
-  </si>
-  <si>
     <t>PATRONATO</t>
   </si>
   <si>
-    <t>Avda. Recoleta 301</t>
-  </si>
-  <si>
     <t>RONDIZZONI</t>
   </si>
   <si>
-    <t>Avenida General Rondizzoni 1650</t>
-  </si>
-  <si>
     <t>Gran Avenida José Miguel Carrera Frente al 3806</t>
   </si>
   <si>
@@ -353,9 +257,6 @@
     <t>ZAPADORES</t>
   </si>
   <si>
-    <t>Avda. Recoleta 3754</t>
-  </si>
-  <si>
     <t>L3</t>
   </si>
   <si>
@@ -587,81 +488,45 @@
     <t>GRECIA</t>
   </si>
   <si>
-    <t>Avda. Grecia 5280</t>
-  </si>
-  <si>
     <t>LOS ORIENTALES</t>
   </si>
   <si>
-    <t>Avda. Americo Vespucio 825</t>
-  </si>
-  <si>
     <t>LOS PRESIDENTES</t>
   </si>
   <si>
-    <t>Avda. Americo Vespucio  2469</t>
-  </si>
-  <si>
     <t>MACUL</t>
   </si>
   <si>
     <t>PLAZA EGANA</t>
   </si>
   <si>
-    <t>Avda. Américo Vespucio 30</t>
-  </si>
-  <si>
     <t>PRINCIPE DE GALES</t>
   </si>
   <si>
-    <t>Avda. Americo Vespucio 1660</t>
-  </si>
-  <si>
     <t>QUILIN</t>
   </si>
   <si>
-    <t>Avda. Americo Vespucio 3411</t>
-  </si>
-  <si>
     <t>SIMON BOLIVAR</t>
   </si>
   <si>
-    <t>Avda. Americo Vespucio 760</t>
-  </si>
-  <si>
     <t>LAS MERCEDES</t>
   </si>
   <si>
-    <t>Avda. Concha y Toro 1099</t>
-  </si>
-  <si>
     <t>PUENTE ALTO</t>
   </si>
   <si>
     <t>PLAZA PUENTE ALTO</t>
   </si>
   <si>
-    <t>Avda. Concha y Toro 265</t>
-  </si>
-  <si>
     <t>LAS TORRES</t>
   </si>
   <si>
-    <t>Avda. Américo Vespucio 5001</t>
-  </si>
-  <si>
     <t>SOTERO DEL RIO</t>
   </si>
   <si>
-    <t>Avda. Concha y Toro 3458</t>
-  </si>
-  <si>
     <t>ROJAS MAGALLANES</t>
   </si>
   <si>
-    <t>Avda. Vicuña Mackenna Frente al 8825</t>
-  </si>
-  <si>
     <t>LA FLORIDA</t>
   </si>
   <si>
@@ -671,24 +536,15 @@
     <t>VICUÑA MACKENNA L4</t>
   </si>
   <si>
-    <t>Avda. Américo Vespucio Frente al 7340</t>
-  </si>
-  <si>
     <t>VICENTE VALDES L4</t>
   </si>
   <si>
-    <t>Avda. Vicuña Mackenna 7897</t>
-  </si>
-  <si>
     <t>L4A</t>
   </si>
   <si>
     <t>SANTA ROSA</t>
   </si>
   <si>
-    <t>Avda. Santa Rosa 8914</t>
-  </si>
-  <si>
     <t>LA GRANJA</t>
   </si>
   <si>
@@ -707,24 +563,12 @@
     <t>BELLAVISTA LA FLORIDA</t>
   </si>
   <si>
-    <t>Avda. Vicuña Mackenna Costado de 165</t>
-  </si>
-  <si>
     <t>CAMINO AGRICOLA</t>
   </si>
   <si>
-    <t>Avda. Vicuña Mackenna 3953</t>
-  </si>
-  <si>
     <t>CARLOS VALDOVINOS</t>
   </si>
   <si>
-    <t>Avda. Vicuña Mackenna 3745</t>
-  </si>
-  <si>
-    <t>Avda. Irarrazaval 351</t>
-  </si>
-  <si>
     <t>ÑUBLE L5</t>
   </si>
   <si>
@@ -734,18 +578,12 @@
     <t>MIRADOR</t>
   </si>
   <si>
-    <t>Avda. Vicuña Mackenna Frente a 6420</t>
-  </si>
-  <si>
     <t>21 de Mayo 543</t>
   </si>
   <si>
     <t>SAN JOAQUIN</t>
   </si>
   <si>
-    <t>Avda. Vicuña Mackenna 4861</t>
-  </si>
-  <si>
     <t>PARQUE BUSTAMANTE</t>
   </si>
   <si>
@@ -761,9 +599,6 @@
     <t>RODRIGO DE ARAYA</t>
   </si>
   <si>
-    <t>Avda. Vicuña Mackenna 2601</t>
-  </si>
-  <si>
     <t>SANTA ANA L5</t>
   </si>
   <si>
@@ -803,24 +638,15 @@
     <t>INES DE SUAREZ</t>
   </si>
   <si>
-    <t>Avda. Pedro de Valdivia 1664</t>
-  </si>
-  <si>
     <t>LO VALLEDOR</t>
   </si>
   <si>
-    <t>Avda. Carlos Valdovinos 3346</t>
-  </si>
-  <si>
     <t>PEDRO AGUIRRE CERDA</t>
   </si>
   <si>
     <t>PRESIDENTE PEDRO AGUIRRE CERDA</t>
   </si>
   <si>
-    <t>Avda. Carlos Valdovinos 2223</t>
-  </si>
-  <si>
     <t>LOS LEONES L6</t>
   </si>
   <si>
@@ -830,12 +656,6 @@
     <t>ESTADIO NACIONAL</t>
   </si>
   <si>
-    <t>Avda. Grecia 2298</t>
-  </si>
-  <si>
-    <t>Avda. Irarrázaval 2461</t>
-  </si>
-  <si>
     <t>ÑUBLE L6</t>
   </si>
   <si>
@@ -845,36 +665,18 @@
     <t>BIO BIO</t>
   </si>
   <si>
-    <t>Avda. Santa Rosa 2374</t>
-  </si>
-  <si>
     <t>PUDAHUEL</t>
   </si>
   <si>
-    <t>Avda. Teniente Cruz 800</t>
-  </si>
-  <si>
     <t>GRUTA DE LOURDES</t>
   </si>
   <si>
-    <t>Avda. San Pablo 4098</t>
-  </si>
-  <si>
     <t>BLANQUEADO</t>
   </si>
   <si>
-    <t>Avda. San Pablo 5199</t>
-  </si>
-  <si>
-    <t>Avda. San Pablo 5885</t>
-  </si>
-  <si>
     <t>BAQUEDANO L1</t>
   </si>
   <si>
-    <t>Avda. Providencia 011</t>
-  </si>
-  <si>
     <t>NEPTUNO</t>
   </si>
   <si>
@@ -983,25 +785,226 @@
     <t>PEDRERO</t>
   </si>
   <si>
-    <t>Avda. Departamental 1901</t>
-  </si>
-  <si>
     <t>PLAZA DE MAIPU</t>
   </si>
   <si>
     <t>Avda. Pajaritos 1921</t>
   </si>
   <si>
-    <t>RICARDO CUMMING</t>
-  </si>
-  <si>
-    <t>Avda. Ricardo Cumming 502</t>
-  </si>
-  <si>
     <t>SANTIAGO BUERAS</t>
   </si>
   <si>
     <t>Avda. Pajaritos 3321</t>
+  </si>
+  <si>
+    <t>CUMMING</t>
+  </si>
+  <si>
+    <t>Av. Apoquindo Frente al 3885</t>
+  </si>
+  <si>
+    <t>Av. Providencia 011</t>
+  </si>
+  <si>
+    <t>Av. Libertador Bernardo O`Higgins Frente al 4620</t>
+  </si>
+  <si>
+    <t>Av. Apoquindo Frente al Nº3231</t>
+  </si>
+  <si>
+    <t>Av. Apoquindo Frente al 4502</t>
+  </si>
+  <si>
+    <t>Av. Libertador Bernardo O`Higgins Frente al 3322</t>
+  </si>
+  <si>
+    <t>Av. Libertador Bernardo O`Higgins 1774</t>
+  </si>
+  <si>
+    <t>Av. Libertador Bernardo O`Higgins 2275</t>
+  </si>
+  <si>
+    <t>Av. Apoquindo 7095</t>
+  </si>
+  <si>
+    <t>Av. Libertador Bernardo O`Higgins 1330</t>
+  </si>
+  <si>
+    <t>Av. Libertador Bernardo O`Higgins 6056</t>
+  </si>
+  <si>
+    <t>Av. Apoquindo 8613</t>
+  </si>
+  <si>
+    <t>Av. Nueva Providencia 2249</t>
+  </si>
+  <si>
+    <t>Av. Apoquindo Frente al 5875</t>
+  </si>
+  <si>
+    <t>Av. Providencia 1337</t>
+  </si>
+  <si>
+    <t>Av. Libertador Bernardo O`Higgins Frente al 4102</t>
+  </si>
+  <si>
+    <t>Av. General Bonilla 5900</t>
+  </si>
+  <si>
+    <t>Av. Providencia 1880</t>
+  </si>
+  <si>
+    <t>Av. Providencia 700</t>
+  </si>
+  <si>
+    <t>Av. Tobalaba 117</t>
+  </si>
+  <si>
+    <t>Av. Libertador Bernardo O`Higgins 2841</t>
+  </si>
+  <si>
+    <t>Av. Libertador Bernardo O´Higgins N°511</t>
+  </si>
+  <si>
+    <t>Av. Libertador Bernardo O`Higgins 270</t>
+  </si>
+  <si>
+    <t>Av. Libertador Bernardo O`Higgins 1020</t>
+  </si>
+  <si>
+    <t>Av. Libertador Bernardo O`Higgins Frente al 3702</t>
+  </si>
+  <si>
+    <t>Av. Recoleta 1502</t>
+  </si>
+  <si>
+    <t>Av. Recoleta 860</t>
+  </si>
+  <si>
+    <t>Av. Recoleta 3202</t>
+  </si>
+  <si>
+    <t>Av. Einstein 601</t>
+  </si>
+  <si>
+    <t>Av. Manuel Antonio Matta 1704</t>
+  </si>
+  <si>
+    <t>Av. Recoleta 301</t>
+  </si>
+  <si>
+    <t>Av. Recoleta 3754</t>
+  </si>
+  <si>
+    <t>Av. Grecia 5280</t>
+  </si>
+  <si>
+    <t>Av. Americo Vespucio 825</t>
+  </si>
+  <si>
+    <t>Av. Americo Vespucio  2469</t>
+  </si>
+  <si>
+    <t>Av. Américo Vespucio 30</t>
+  </si>
+  <si>
+    <t>Av. Americo Vespucio 1660</t>
+  </si>
+  <si>
+    <t>Av. Americo Vespucio 3411</t>
+  </si>
+  <si>
+    <t>Av. Americo Vespucio 760</t>
+  </si>
+  <si>
+    <t>Av. Concha y Toro 1099</t>
+  </si>
+  <si>
+    <t>Av. Concha y Toro 265</t>
+  </si>
+  <si>
+    <t>Av. Américo Vespucio 5001</t>
+  </si>
+  <si>
+    <t>Av. Concha y Toro 3458</t>
+  </si>
+  <si>
+    <t>Av. Vicuña Mackenna Frente al 8825</t>
+  </si>
+  <si>
+    <t>Av. Américo Vespucio Frente al 7340</t>
+  </si>
+  <si>
+    <t>Av. Vicuña Mackenna 7897</t>
+  </si>
+  <si>
+    <t>Av. Santa Rosa 8914</t>
+  </si>
+  <si>
+    <t>Av. Vicuña Mackenna Costado de 165</t>
+  </si>
+  <si>
+    <t>Av. Vicuña Mackenna 3953</t>
+  </si>
+  <si>
+    <t>Av. Vicuña Mackenna 3745</t>
+  </si>
+  <si>
+    <t>Av. Irarrazaval 351</t>
+  </si>
+  <si>
+    <t>Av. Vicuña Mackenna Frente a 6420</t>
+  </si>
+  <si>
+    <t>Av. Departamental 1901</t>
+  </si>
+  <si>
+    <t>Av. Vicuña Mackenna 4861</t>
+  </si>
+  <si>
+    <t>Av. Vicuña Mackenna 2601</t>
+  </si>
+  <si>
+    <t>Av. Ricardo Cumming 502</t>
+  </si>
+  <si>
+    <t>Av. San Pablo 6190</t>
+  </si>
+  <si>
+    <t>Av. Pedro de Valdivia 1664</t>
+  </si>
+  <si>
+    <t>Av. Carlos Valdovinos 3346</t>
+  </si>
+  <si>
+    <t>Av. Carlos Valdovinos 2223</t>
+  </si>
+  <si>
+    <t>Av. Grecia 2298</t>
+  </si>
+  <si>
+    <t>Av. Irarrázaval 2461</t>
+  </si>
+  <si>
+    <t>Av. Santa Rosa 2374</t>
+  </si>
+  <si>
+    <t>Av. Teniente Cruz 800</t>
+  </si>
+  <si>
+    <t>Av. San Pablo 4098</t>
+  </si>
+  <si>
+    <t>Av. San Pablo 5199</t>
+  </si>
+  <si>
+    <t>Av. San Pablo 5885</t>
+  </si>
+  <si>
+    <t>Gran Avenida Jose Miguel Carrera Frente al 3080</t>
+  </si>
+  <si>
+    <t>Av. General Rondizzoni 1650</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1139,6 +1142,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1441,7 +1447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K122"/>
+  <dimension ref="B1:K127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1526,13 +1532,13 @@
         <v>15</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="7">
         <v>352190.50530000002</v>
@@ -1548,35 +1554,35 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>341905.43699999998</v>
+        <v>348189</v>
       </c>
       <c r="I11" s="7">
-        <v>6296835.3721000003</v>
+        <v>6299042</v>
       </c>
       <c r="J11" s="7">
-        <v>-70.701085600400006</v>
+        <v>-70.633118999999994</v>
       </c>
       <c r="K11" s="7">
-        <v>-33.456266649600003</v>
+        <v>-33.437277000000002</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -1587,28 +1593,28 @@
         <v>0</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>263</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="7">
-        <v>351618.78570000001</v>
+        <v>341905.43699999998</v>
       </c>
       <c r="I12" s="7">
-        <v>6301382.5851999996</v>
+        <v>6296835.3721000003</v>
       </c>
       <c r="J12" s="7">
-        <v>-70.595856338700003</v>
+        <v>-70.701085600400006</v>
       </c>
       <c r="K12" s="7">
-        <v>-33.416657733999998</v>
+        <v>-33.456266649600003</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -1619,28 +1625,28 @@
         <v>0</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>25</v>
+        <v>264</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="7">
-        <v>352658.06599999999</v>
+        <v>351618.78570000001</v>
       </c>
       <c r="I13" s="7">
-        <v>6301660.9830999998</v>
+        <v>6301382.5851999996</v>
       </c>
       <c r="J13" s="7">
-        <v>-70.584636900099994</v>
+        <v>-70.595856338700003</v>
       </c>
       <c r="K13" s="7">
-        <v>-33.414290881200003</v>
+        <v>-33.416657733999998</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -1654,25 +1660,25 @@
         <v>21</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>343934.75770000002</v>
+        <v>352658.06599999999</v>
       </c>
       <c r="I14" s="7">
-        <v>6297466.4296000004</v>
+        <v>6301660.9830999998</v>
       </c>
       <c r="J14" s="7">
-        <v>-70.679148797899998</v>
+        <v>-70.584636900099994</v>
       </c>
       <c r="K14" s="7">
-        <v>-33.450874772100001</v>
+        <v>-33.414290881200003</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -1683,28 +1689,28 @@
         <v>0</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>266</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" s="7">
-        <v>345548</v>
+        <v>343934.75770000002</v>
       </c>
       <c r="I15" s="7">
-        <v>6297979</v>
+        <v>6297466.4296000004</v>
       </c>
       <c r="J15" s="7">
-        <v>-70.661704999999998</v>
+        <v>-70.679148797899998</v>
       </c>
       <c r="K15" s="7">
-        <v>-33.446486999999998</v>
+        <v>-33.450874772100001</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -1715,28 +1721,28 @@
         <v>0</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>31</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" s="7">
-        <v>350091.48239999998</v>
+        <v>345548</v>
       </c>
       <c r="I16" s="7">
-        <v>6300441.6278999997</v>
+        <v>6297979</v>
       </c>
       <c r="J16" s="7">
-        <v>-70.612433869699998</v>
+        <v>-70.661704999999998</v>
       </c>
       <c r="K16" s="7">
-        <v>-33.424929206999998</v>
+        <v>-33.446486999999998</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -1747,28 +1753,28 @@
         <v>0</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>33</v>
+        <v>268</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>355347.891</v>
+        <v>350091.48239999998</v>
       </c>
       <c r="I17" s="7">
-        <v>6302398.5669</v>
+        <v>6300441.6278999997</v>
       </c>
       <c r="J17" s="7">
-        <v>-70.555599088500003</v>
+        <v>-70.612433869699998</v>
       </c>
       <c r="K17" s="7">
-        <v>-33.408006597399996</v>
+        <v>-33.424929206999998</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -1779,28 +1785,28 @@
         <v>0</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>269</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" s="7">
-        <v>346187.81579999998</v>
+        <v>355347.891</v>
       </c>
       <c r="I18" s="7">
-        <v>6298170.2531000003</v>
+        <v>6302398.5669</v>
       </c>
       <c r="J18" s="7">
-        <v>-70.654795863900006</v>
+        <v>-70.555599088500003</v>
       </c>
       <c r="K18" s="7">
-        <v>-33.444855009900003</v>
+        <v>-33.408006597399996</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -1811,28 +1817,28 @@
         <v>0</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="7">
-        <v>341462.67109999998</v>
+        <v>346187.81579999998</v>
       </c>
       <c r="I19" s="7">
-        <v>6296705.8657</v>
+        <v>6298170.2531000003</v>
       </c>
       <c r="J19" s="7">
-        <v>-70.705870761300005</v>
+        <v>-70.654795863900006</v>
       </c>
       <c r="K19" s="7">
-        <v>-33.457368792099999</v>
+        <v>-33.444855009900003</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -1843,28 +1849,28 @@
         <v>0</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>39</v>
+        <v>271</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" s="7">
-        <v>356325.9436</v>
+        <v>341462.67109999998</v>
       </c>
       <c r="I20" s="7">
-        <v>6302425.3639000002</v>
+        <v>6296705.8657</v>
       </c>
       <c r="J20" s="7">
-        <v>-70.545080104899995</v>
+        <v>-70.705870761300005</v>
       </c>
       <c r="K20" s="7">
-        <v>-33.407896397599998</v>
+        <v>-33.457368792099999</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -1875,28 +1881,28 @@
         <v>0</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" s="7">
-        <v>350438.57530000003</v>
+        <v>356325.9436</v>
       </c>
       <c r="I21" s="7">
-        <v>6300752.5780999996</v>
+        <v>6302425.3639000002</v>
       </c>
       <c r="J21" s="7">
-        <v>-70.608650059799999</v>
+        <v>-70.545080104899995</v>
       </c>
       <c r="K21" s="7">
-        <v>-33.422174088399998</v>
+        <v>-33.407896397599998</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -1907,28 +1913,28 @@
         <v>0</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" s="7">
-        <v>354184.66239999997</v>
+        <v>350438.57530000003</v>
       </c>
       <c r="I22" s="7">
-        <v>6302268.0532999998</v>
+        <v>6300752.5780999996</v>
       </c>
       <c r="J22" s="7">
-        <v>-70.568125616700002</v>
+        <v>-70.608650059799999</v>
       </c>
       <c r="K22" s="7">
-        <v>-33.409025904000003</v>
+        <v>-33.422174088399998</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -1939,28 +1945,28 @@
         <v>0</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>46</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H23" s="7">
-        <v>349496.11050000001</v>
+        <v>354184.66239999997</v>
       </c>
       <c r="I23" s="7">
-        <v>6299958.6383999996</v>
+        <v>6302268.0532999998</v>
       </c>
       <c r="J23" s="7">
-        <v>-70.618916394600006</v>
+        <v>-70.568125616700002</v>
       </c>
       <c r="K23" s="7">
-        <v>-33.429200509300003</v>
+        <v>-33.409025904000003</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
@@ -1971,28 +1977,28 @@
         <v>0</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>48</v>
+        <v>275</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" s="7">
-        <v>348825.51789999998</v>
+        <v>349496.11050000001</v>
       </c>
       <c r="I24" s="7">
-        <v>6299475.0187999997</v>
+        <v>6299958.6383999996</v>
       </c>
       <c r="J24" s="7">
-        <v>-70.626208532800007</v>
+        <v>-70.618916394600006</v>
       </c>
       <c r="K24" s="7">
-        <v>-33.433466525900002</v>
+        <v>-33.429200509300003</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -2003,28 +2009,28 @@
         <v>0</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>50</v>
+        <v>276</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H25" s="7">
-        <v>340527.16529999999</v>
+        <v>348825.51789999998</v>
       </c>
       <c r="I25" s="7">
-        <v>6296685.0924000004</v>
+        <v>6299475.0187999997</v>
       </c>
       <c r="J25" s="7">
-        <v>-70.715936625200001</v>
+        <v>-70.626208532800007</v>
       </c>
       <c r="K25" s="7">
-        <v>-33.457417184800001</v>
+        <v>-33.433466525900002</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
@@ -2035,28 +2041,28 @@
         <v>0</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>53</v>
+        <v>277</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H26" s="7">
-        <v>342712.03619999997</v>
+        <v>340527.16529999999</v>
       </c>
       <c r="I26" s="7">
-        <v>6297075.1391000003</v>
+        <v>6296685.0924000004</v>
       </c>
       <c r="J26" s="7">
-        <v>-70.692367955700007</v>
+        <v>-70.715936625200001</v>
       </c>
       <c r="K26" s="7">
-        <v>-33.454223725799999</v>
+        <v>-33.457417184800001</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -2067,28 +2073,28 @@
         <v>0</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H27" s="7">
-        <v>345054.95779999997</v>
+        <v>342712.03619999997</v>
       </c>
       <c r="I27" s="7">
-        <v>6297836.0608999999</v>
+        <v>6297075.1391000003</v>
       </c>
       <c r="J27" s="7">
-        <v>-70.6670369446</v>
+        <v>-70.692367955700007</v>
       </c>
       <c r="K27" s="7">
-        <v>-33.447704829999999</v>
+        <v>-33.454223725799999</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -2099,28 +2105,28 @@
         <v>0</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>57</v>
+        <v>279</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H28" s="7">
-        <v>350977</v>
+        <v>345054.95779999997</v>
       </c>
       <c r="I28" s="7">
-        <v>6301143</v>
+        <v>6297836.0608999999</v>
       </c>
       <c r="J28" s="7">
-        <v>-70.602791999999994</v>
+        <v>-70.6670369446</v>
       </c>
       <c r="K28" s="7">
-        <v>-33.418722000000002</v>
+        <v>-33.447704829999999</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -2131,28 +2137,28 @@
         <v>0</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>59</v>
+        <v>280</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H29" s="7">
-        <v>344461.29019999999</v>
+        <v>350977</v>
       </c>
       <c r="I29" s="7">
-        <v>6297635.9720999999</v>
+        <v>6301143</v>
       </c>
       <c r="J29" s="7">
-        <v>-70.673456434000002</v>
+        <v>-70.602791999999994</v>
       </c>
       <c r="K29" s="7">
-        <v>-33.449422780200003</v>
+        <v>-33.418722000000002</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -2163,28 +2169,28 @@
         <v>0</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H30" s="7">
-        <v>347075.42950000003</v>
+        <v>344461.29019999999</v>
       </c>
       <c r="I30" s="7">
-        <v>6298439.5549999997</v>
+        <v>6297635.9720999999</v>
       </c>
       <c r="J30" s="7">
-        <v>-70.645204023299996</v>
+        <v>-70.673456434000002</v>
       </c>
       <c r="K30" s="7">
-        <v>-33.442554035599997</v>
+        <v>-33.449422780200003</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -2195,28 +2201,28 @@
         <v>0</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>63</v>
+        <v>282</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H31" s="7">
-        <v>347551.61540000001</v>
+        <v>347075.42950000003</v>
       </c>
       <c r="I31" s="7">
-        <v>6298746.6211999999</v>
+        <v>6298439.5549999997</v>
       </c>
       <c r="J31" s="7">
-        <v>-70.640030812099994</v>
+        <v>-70.645204023299996</v>
       </c>
       <c r="K31" s="7">
-        <v>-33.439853369399998</v>
+        <v>-33.442554035599997</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -2227,28 +2233,28 @@
         <v>0</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>65</v>
+        <v>283</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H32" s="7">
-        <v>346604.60340000002</v>
+        <v>347551.61540000001</v>
       </c>
       <c r="I32" s="7">
-        <v>6298297.7747999998</v>
+        <v>6298746.6211999999</v>
       </c>
       <c r="J32" s="7">
-        <v>-70.650291680500004</v>
+        <v>-70.640030812099994</v>
       </c>
       <c r="K32" s="7">
-        <v>-33.4437650271</v>
+        <v>-33.439853369399998</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
@@ -2259,2875 +2265,3035 @@
         <v>0</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>67</v>
+        <v>284</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H33" s="7">
-        <v>343266.98680000001</v>
+        <v>346604.60340000002</v>
       </c>
       <c r="I33" s="7">
-        <v>6297238.5147000002</v>
+        <v>6298297.7747999998</v>
       </c>
       <c r="J33" s="7">
-        <v>-70.686370604299995</v>
+        <v>-70.650291680500004</v>
       </c>
       <c r="K33" s="7">
-        <v>-33.452832113699998</v>
+        <v>-33.4437650271</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>70</v>
+        <v>285</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H34" s="7">
-        <v>346405.44559999998</v>
+        <v>343266.98680000001</v>
       </c>
       <c r="I34" s="7">
-        <v>6299494.5910999998</v>
+        <v>6297238.5147000002</v>
       </c>
       <c r="J34" s="7">
-        <v>-70.652228944000001</v>
+        <v>-70.686370604299995</v>
       </c>
       <c r="K34" s="7">
-        <v>-33.4329460266</v>
+        <v>-33.452832113699998</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H35" s="7">
-        <v>347172.4399</v>
+        <v>346405.44559999998</v>
       </c>
       <c r="I35" s="7">
-        <v>6301622.1512000002</v>
+        <v>6299494.5910999998</v>
       </c>
       <c r="J35" s="7">
-        <v>-70.643619688100003</v>
+        <v>-70.652228944000001</v>
       </c>
       <c r="K35" s="7">
-        <v>-33.413873485899998</v>
+        <v>-33.4329460266</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>75</v>
+        <v>286</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H36" s="7">
-        <v>347064.82630000002</v>
+        <v>347172.4399</v>
       </c>
       <c r="I36" s="7">
-        <v>6300666.2221999997</v>
+        <v>6301622.1512000002</v>
       </c>
       <c r="J36" s="7">
-        <v>-70.644939171299995</v>
+        <v>-70.643619688100003</v>
       </c>
       <c r="K36" s="7">
-        <v>-33.4224768455</v>
+        <v>-33.413873485899998</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H37" s="7">
-        <v>346129.76270000002</v>
+        <v>347064.82630000002</v>
       </c>
       <c r="I37" s="7">
-        <v>6290986.8514999999</v>
+        <v>6300666.2221999997</v>
       </c>
       <c r="J37" s="7">
-        <v>-70.656652699000006</v>
+        <v>-70.644939171299995</v>
       </c>
       <c r="K37" s="7">
-        <v>-33.509611545699997</v>
+        <v>-33.4224768455</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H38" s="7">
-        <v>347224.44099999999</v>
+        <v>346129.76270000002</v>
       </c>
       <c r="I38" s="7">
-        <v>6303516.2537000002</v>
+        <v>6290986.8514999999</v>
       </c>
       <c r="J38" s="7">
-        <v>-70.642739103500006</v>
+        <v>-70.656652699000006</v>
       </c>
       <c r="K38" s="7">
-        <v>-33.3968035324</v>
+        <v>-33.509611545699997</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>82</v>
+        <v>288</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H39" s="7">
-        <v>347200.5319</v>
+        <v>347224.44099999999</v>
       </c>
       <c r="I39" s="7">
-        <v>6302442.9197000004</v>
+        <v>6303516.2537000002</v>
       </c>
       <c r="J39" s="7">
-        <v>-70.643178292499996</v>
+        <v>-70.642739103500006</v>
       </c>
       <c r="K39" s="7">
-        <v>-33.406477388500001</v>
+        <v>-33.3968035324</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>84</v>
+        <v>289</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H40" s="7">
-        <v>346781.53600000002</v>
+        <v>347200.5319</v>
       </c>
       <c r="I40" s="7">
-        <v>6293993.4412000002</v>
+        <v>6302442.9197000004</v>
       </c>
       <c r="J40" s="7">
-        <v>-70.649123733799996</v>
+        <v>-70.643178292499996</v>
       </c>
       <c r="K40" s="7">
-        <v>-33.482598038200003</v>
+        <v>-33.406477388500001</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>86</v>
+        <v>328</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H41" s="7">
-        <v>346744.23359999998</v>
+        <v>346781.53600000002</v>
       </c>
       <c r="I41" s="7">
-        <v>6294717.091</v>
+        <v>6293993.4412000002</v>
       </c>
       <c r="J41" s="7">
-        <v>-70.649401404900004</v>
+        <v>-70.649123733799996</v>
       </c>
       <c r="K41" s="7">
-        <v>-33.476068318000003</v>
+        <v>-33.482598038200003</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H42" s="7">
-        <v>345943.13150000002</v>
+        <v>346744.23359999998</v>
       </c>
       <c r="I42" s="7">
-        <v>6290138.5032000002</v>
+        <v>6294717.091</v>
       </c>
       <c r="J42" s="7">
-        <v>-70.658807333300004</v>
+        <v>-70.649401404900004</v>
       </c>
       <c r="K42" s="7">
-        <v>-33.517233235299997</v>
+        <v>-33.476068318000003</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H43" s="7">
-        <v>346455.71039999998</v>
+        <v>345943.13150000002</v>
       </c>
       <c r="I43" s="7">
-        <v>6292455.9304999998</v>
+        <v>6290138.5032000002</v>
       </c>
       <c r="J43" s="7">
-        <v>-70.652892795</v>
+        <v>-70.658807333300004</v>
       </c>
       <c r="K43" s="7">
-        <v>-33.496413376299998</v>
+        <v>-33.517233235299997</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H44" s="7">
-        <v>345453.53330000001</v>
+        <v>346455.71039999998</v>
       </c>
       <c r="I44" s="7">
-        <v>6287830.4976000004</v>
+        <v>6292455.9304999998</v>
       </c>
       <c r="J44" s="7">
-        <v>-70.664475871999997</v>
+        <v>-70.652892795</v>
       </c>
       <c r="K44" s="7">
-        <v>-33.537971040099997</v>
+        <v>-33.496413376299998</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H45" s="7">
-        <v>345716.56089999998</v>
+        <v>345453.53330000001</v>
       </c>
       <c r="I45" s="7">
-        <v>6289105.5916999998</v>
+        <v>6287830.4976000004</v>
       </c>
       <c r="J45" s="7">
-        <v>-70.6614241284</v>
+        <v>-70.664475871999997</v>
       </c>
       <c r="K45" s="7">
-        <v>-33.526513086000001</v>
+        <v>-33.537971040099997</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H46" s="7">
-        <v>346290.59299999999</v>
+        <v>345716.56089999998</v>
       </c>
       <c r="I46" s="7">
-        <v>6291715.0861</v>
+        <v>6289105.5916999998</v>
       </c>
       <c r="J46" s="7">
-        <v>-70.654796744400002</v>
+        <v>-70.6614241284</v>
       </c>
       <c r="K46" s="7">
-        <v>-33.503069019000002</v>
+        <v>-33.526513086000001</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H47" s="7">
-        <v>346027.74719999998</v>
+        <v>346290.59299999999</v>
       </c>
       <c r="I47" s="7">
-        <v>6296394.5313999997</v>
+        <v>6291715.0861</v>
       </c>
       <c r="J47" s="7">
-        <v>-70.656821848000007</v>
+        <v>-70.654796744400002</v>
       </c>
       <c r="K47" s="7">
-        <v>-33.460841816799999</v>
+        <v>-33.503069019000002</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="E48" s="7" t="s">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H48" s="7">
-        <v>346880.83279999997</v>
+        <v>346027.74719999998</v>
       </c>
       <c r="I48" s="7">
-        <v>6299870.0807999996</v>
+        <v>6296394.5313999997</v>
       </c>
       <c r="J48" s="7">
-        <v>-70.647053044299994</v>
+        <v>-70.656821848000007</v>
       </c>
       <c r="K48" s="7">
-        <v>-33.429628617500001</v>
+        <v>-33.460841816799999</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>102</v>
+        <v>291</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H49" s="7">
-        <v>346111</v>
+        <v>346880.83279999997</v>
       </c>
       <c r="I49" s="7">
-        <v>6295384</v>
+        <v>6299870.0807999996</v>
       </c>
       <c r="J49" s="7">
-        <v>-70.656665637344005</v>
+        <v>-70.647053044299994</v>
       </c>
       <c r="K49" s="7">
-        <v>-33.470248924329297</v>
+        <v>-33.429628617500001</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>103</v>
+        <v>329</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H50" s="7">
-        <v>346699</v>
+        <v>346111</v>
       </c>
       <c r="I50" s="7">
-        <v>6293314</v>
+        <v>6295384</v>
       </c>
       <c r="J50" s="7">
-        <v>-70.650687213148402</v>
+        <v>-70.656665637344005</v>
       </c>
       <c r="K50" s="7">
-        <v>-33.488996403272203</v>
+        <v>-33.470248924329297</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H51" s="7">
-        <v>345864</v>
+        <v>346699</v>
       </c>
       <c r="I51" s="7">
-        <v>6298817</v>
+        <v>6293314</v>
       </c>
       <c r="J51" s="7">
-        <v>-70.658731057999901</v>
+        <v>-70.650687213148402</v>
       </c>
       <c r="K51" s="7">
-        <v>-33.439255038999903</v>
+        <v>-33.488996403272203</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H52" s="7">
-        <v>345548</v>
+        <v>345864</v>
       </c>
       <c r="I52" s="7">
-        <v>6297979</v>
+        <v>6298817</v>
       </c>
       <c r="J52" s="7">
-        <v>-70.661704999999998</v>
+        <v>-70.658731057999901</v>
       </c>
       <c r="K52" s="7">
-        <v>-33.446486999999998</v>
+        <v>-33.439255038999903</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>108</v>
+        <v>267</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H53" s="7">
-        <v>345834.98680000001</v>
+        <v>345548</v>
       </c>
       <c r="I53" s="7">
-        <v>6297333.1585999997</v>
+        <v>6297979</v>
       </c>
       <c r="J53" s="7">
-        <v>-70.658734104000004</v>
+        <v>-70.661704999999998</v>
       </c>
       <c r="K53" s="7">
-        <v>-33.452351491999998</v>
+        <v>-33.446486999999998</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H54" s="7">
-        <v>346929</v>
+        <v>345834.98680000001</v>
       </c>
       <c r="I54" s="7">
-        <v>6305281</v>
+        <v>6297333.1585999997</v>
       </c>
       <c r="J54" s="7">
-        <v>-70.646175807999995</v>
+        <v>-70.658734104000004</v>
       </c>
       <c r="K54" s="7">
-        <v>-33.381131836000002</v>
+        <v>-33.452351491999998</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H55" s="7">
-        <v>347238</v>
+        <v>346929</v>
       </c>
       <c r="I55" s="7">
-        <v>6304160</v>
+        <v>6305281</v>
       </c>
       <c r="J55" s="7">
-        <v>-70.642441000000005</v>
+        <v>-70.646175807999995</v>
       </c>
       <c r="K55" s="7">
-        <v>-33.390937999999998</v>
+        <v>-33.381131836000002</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>115</v>
+        <v>292</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H56" s="7">
-        <v>351549</v>
+        <v>347238</v>
       </c>
       <c r="I56" s="7">
-        <v>6297112</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>118</v>
+        <v>6304160</v>
+      </c>
+      <c r="J56" s="7">
+        <v>-70.642441000000005</v>
+      </c>
+      <c r="K56" s="7">
+        <v>-33.390937999999998</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H57" s="7">
-        <v>344658</v>
+        <v>351549</v>
       </c>
       <c r="I57" s="7">
-        <v>6303426</v>
+        <v>6297112</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H58" s="7">
-        <v>355173</v>
+        <v>344658</v>
       </c>
       <c r="I58" s="7">
-        <v>6297482</v>
+        <v>6303426</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H59" s="7">
-        <v>346057</v>
+        <v>355173</v>
       </c>
       <c r="I59" s="7">
-        <v>6301173</v>
+        <v>6297482</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H60" s="7">
-        <v>343004</v>
+        <v>346057</v>
       </c>
       <c r="I60" s="7">
-        <v>6306739</v>
+        <v>6301173</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H61" s="7">
-        <v>346601</v>
+        <v>343004</v>
       </c>
       <c r="I61" s="7">
-        <v>6297432</v>
+        <v>6306739</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H62" s="7">
-        <v>347293</v>
+        <v>346601</v>
       </c>
       <c r="I62" s="7">
-        <v>6296732</v>
+        <v>6297432</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H63" s="7">
-        <v>350011</v>
+        <v>347293</v>
       </c>
       <c r="I63" s="7">
-        <v>6297270</v>
+        <v>6296732</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" s="7" t="s">
+      <c r="E64" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="7">
+        <v>350011</v>
+      </c>
+      <c r="I64" s="7">
+        <v>6297270</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" s="7">
-        <v>350837</v>
-      </c>
-      <c r="I64" s="7">
-        <v>6297230</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H65" s="7">
-        <v>345549</v>
+        <v>350837</v>
       </c>
       <c r="I65" s="7">
-        <v>6302460</v>
+        <v>6297230</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H66" s="7">
-        <v>353938</v>
+        <v>345549</v>
       </c>
       <c r="I66" s="7">
-        <v>6297337</v>
+        <v>6302460</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H67" s="7">
-        <v>348700</v>
+        <v>353938</v>
       </c>
       <c r="I67" s="7">
-        <v>6297111</v>
+        <v>6297337</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H68" s="7">
-        <v>346413</v>
+        <v>348700</v>
       </c>
       <c r="I68" s="7">
-        <v>6299474</v>
+        <v>6297111</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H69" s="7">
-        <v>346688</v>
+        <v>346413</v>
       </c>
       <c r="I69" s="7">
-        <v>6299118</v>
+        <v>6299474</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H70" s="7">
-        <v>346653</v>
+        <v>346688</v>
       </c>
       <c r="I70" s="7">
-        <v>6298298</v>
+        <v>6299118</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H71" s="7">
-        <v>353009</v>
+        <v>346653</v>
       </c>
       <c r="I71" s="7">
-        <v>6297167</v>
+        <v>6298298</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H72" s="7">
-        <v>343783</v>
+        <v>353009</v>
       </c>
       <c r="I72" s="7">
-        <v>6304754</v>
+        <v>6297167</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H73" s="7">
-        <v>352072.53049999999</v>
+        <v>343783</v>
       </c>
       <c r="I73" s="7">
-        <v>6300319.5486000003</v>
-      </c>
-      <c r="J73" s="7">
-        <v>-70.591152772000001</v>
-      </c>
-      <c r="K73" s="7">
-        <v>-33.426305041699997</v>
+        <v>6304754</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="7" t="s">
-        <v>184</v>
+      <c r="B74" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H74" s="7">
-        <v>352691.17910000001</v>
+        <v>343208</v>
       </c>
       <c r="I74" s="7">
-        <v>6299702.3756999997</v>
-      </c>
-      <c r="J74" s="7">
-        <v>-70.584601758800005</v>
-      </c>
-      <c r="K74" s="7">
-        <v>-33.431954828999999</v>
+        <v>6306090</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H75" s="7">
-        <v>353508.51640000002</v>
+        <v>352072.53049999999</v>
       </c>
       <c r="I75" s="7">
-        <v>6295537.4950000001</v>
+        <v>6300319.5486000003</v>
       </c>
       <c r="J75" s="7">
-        <v>-70.576492012000003</v>
+        <v>-70.591152772000001</v>
       </c>
       <c r="K75" s="7">
-        <v>-33.469618648800001</v>
+        <v>-33.426305041699997</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H76" s="7">
-        <v>353739.18369999999</v>
+        <v>352691.17910000001</v>
       </c>
       <c r="I76" s="7">
-        <v>6296327.8471999997</v>
+        <v>6299702.3756999997</v>
       </c>
       <c r="J76" s="7">
-        <v>-70.573881635000006</v>
+        <v>-70.584601758800005</v>
       </c>
       <c r="K76" s="7">
-        <v>-33.462524148500002</v>
+        <v>-33.431954828999999</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>195</v>
+        <v>83</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H77" s="7">
-        <v>353325.09360000002</v>
+        <v>353508.51640000002</v>
       </c>
       <c r="I77" s="7">
-        <v>6294397.7045999998</v>
+        <v>6295537.4950000001</v>
       </c>
       <c r="J77" s="7">
-        <v>-70.578651689300003</v>
+        <v>-70.576492012000003</v>
       </c>
       <c r="K77" s="7">
-        <v>-33.479870171999998</v>
+        <v>-33.469618648800001</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>197</v>
+        <v>294</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H78" s="7">
-        <v>354017.82329999999</v>
+        <v>353739.18369999999</v>
       </c>
       <c r="I78" s="7">
-        <v>6297380.0932</v>
+        <v>6296327.8471999997</v>
       </c>
       <c r="J78" s="7">
-        <v>-70.570713112999996</v>
+        <v>-70.573881635000006</v>
       </c>
       <c r="K78" s="7">
-        <v>-33.453074794999999</v>
+        <v>-33.462524148500002</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>199</v>
+        <v>295</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H79" s="7">
-        <v>353708.25089999998</v>
+        <v>353325.09360000002</v>
       </c>
       <c r="I79" s="7">
-        <v>6299052.1327999998</v>
+        <v>6294397.7045999998</v>
       </c>
       <c r="J79" s="7">
-        <v>-70.573770571699995</v>
+        <v>-70.578651689300003</v>
       </c>
       <c r="K79" s="7">
-        <v>-33.437956918799998</v>
+        <v>-33.479870171999998</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>201</v>
+        <v>296</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>195</v>
+        <v>83</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H80" s="7">
-        <v>353181.00770000002</v>
+        <v>354017.82329999999</v>
       </c>
       <c r="I80" s="7">
-        <v>6293467.6606000001</v>
+        <v>6297380.0932</v>
       </c>
       <c r="J80" s="7">
-        <v>-70.580354275700003</v>
+        <v>-70.570713112999996</v>
       </c>
       <c r="K80" s="7">
-        <v>-33.4882359056</v>
+        <v>-33.453074794999999</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>203</v>
+        <v>297</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H81" s="7">
-        <v>353926.20280000003</v>
+        <v>353708.25089999998</v>
       </c>
       <c r="I81" s="7">
-        <v>6297939.6125999996</v>
+        <v>6299052.1327999998</v>
       </c>
       <c r="J81" s="7">
-        <v>-70.571607574599994</v>
+        <v>-70.573770571699995</v>
       </c>
       <c r="K81" s="7">
-        <v>-33.448017498200002</v>
+        <v>-33.437956918799998</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>205</v>
+        <v>298</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H82" s="7">
-        <v>353627.18900000001</v>
+        <v>353181.00770000002</v>
       </c>
       <c r="I82" s="7">
-        <v>6280998.5488</v>
+        <v>6293467.6606000001</v>
       </c>
       <c r="J82" s="7">
-        <v>-70.577595141100005</v>
+        <v>-70.580354275700003</v>
       </c>
       <c r="K82" s="7">
-        <v>-33.600720579399997</v>
+        <v>-33.4882359056</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>208</v>
+        <v>299</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>206</v>
+        <v>83</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H83" s="7">
-        <v>353814.41879999998</v>
+        <v>353926.20280000003</v>
       </c>
       <c r="I83" s="7">
-        <v>6279920.8691999996</v>
+        <v>6297939.6125999996</v>
       </c>
       <c r="J83" s="7">
-        <v>-70.575754647699995</v>
+        <v>-70.571607574599994</v>
       </c>
       <c r="K83" s="7">
-        <v>-33.610462733200002</v>
+        <v>-33.448017498200002</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H84" s="7">
-        <v>352640.58610000001</v>
+        <v>353627.18900000001</v>
       </c>
       <c r="I84" s="7">
-        <v>6292278.6536999997</v>
+        <v>6280998.5488</v>
       </c>
       <c r="J84" s="7">
-        <v>-70.586364946700002</v>
+        <v>-70.577595141100005</v>
       </c>
       <c r="K84" s="7">
-        <v>-33.4988819111</v>
+        <v>-33.600720579399997</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>212</v>
+        <v>301</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H85" s="7">
-        <v>353162.1116</v>
+        <v>353814.41879999998</v>
       </c>
       <c r="I85" s="7">
-        <v>6283611.0866999999</v>
+        <v>6279920.8691999996</v>
       </c>
       <c r="J85" s="7">
-        <v>-70.5821759114</v>
+        <v>-70.575754647699995</v>
       </c>
       <c r="K85" s="7">
-        <v>-33.577101739500002</v>
+        <v>-33.610462733200002</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H86" s="7">
-        <v>352123.85930000001</v>
+        <v>352640.58610000001</v>
       </c>
       <c r="I86" s="7">
-        <v>6288135.2562999995</v>
+        <v>6292278.6536999997</v>
       </c>
       <c r="J86" s="7">
-        <v>-70.592610365699997</v>
+        <v>-70.586364946700002</v>
       </c>
       <c r="K86" s="7">
-        <v>-33.536167994099998</v>
+        <v>-33.4988819111</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>57</v>
+        <v>303</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H87" s="7">
-        <v>350977</v>
+        <v>353162.1116</v>
       </c>
       <c r="I87" s="7">
-        <v>6301143</v>
+        <v>6283611.0866999999</v>
       </c>
       <c r="J87" s="7">
-        <v>-70.602791999999994</v>
+        <v>-70.5821759114</v>
       </c>
       <c r="K87" s="7">
-        <v>-33.418722000000002</v>
+        <v>-33.577101739500002</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H88" s="7">
-        <v>351765</v>
+        <v>352123.85930000001</v>
       </c>
       <c r="I88" s="7">
-        <v>6289947</v>
+        <v>6288135.2562999995</v>
       </c>
       <c r="J88" s="7">
-        <v>-70.596172999999993</v>
+        <v>-70.592610365699997</v>
       </c>
       <c r="K88" s="7">
-        <v>-33.519778000000002</v>
+        <v>-33.536167994099998</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H89" s="7">
-        <v>351723</v>
+        <v>350977</v>
       </c>
       <c r="I89" s="7">
-        <v>6289194</v>
+        <v>6301143</v>
       </c>
       <c r="J89" s="7">
-        <v>-70.596748000000005</v>
+        <v>-70.602791999999994</v>
       </c>
       <c r="K89" s="7">
-        <v>-33.526558999999999</v>
+        <v>-33.418722000000002</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>92</v>
+        <v>305</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H90" s="7">
-        <v>345453.53330000001</v>
+        <v>351765</v>
       </c>
       <c r="I90" s="7">
-        <v>6287902.4643999999</v>
+        <v>6289947</v>
       </c>
       <c r="J90" s="7">
-        <v>-70.664475871999997</v>
+        <v>-70.596172999999993</v>
       </c>
       <c r="K90" s="7">
-        <v>-33.537971040099997</v>
+        <v>-33.519778000000002</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>223</v>
+        <v>306</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H91" s="7">
-        <v>348282.62060000002</v>
+        <v>351723</v>
       </c>
       <c r="I91" s="7">
-        <v>6287378.7730999999</v>
+        <v>6289194</v>
       </c>
       <c r="J91" s="7">
-        <v>-70.634093980200007</v>
+        <v>-70.596748000000005</v>
       </c>
       <c r="K91" s="7">
-        <v>-33.542449503599997</v>
+        <v>-33.526558999999999</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>218</v>
+        <v>63</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>215</v>
+        <v>60</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H92" s="7">
-        <v>351765</v>
+        <v>345453.53330000001</v>
       </c>
       <c r="I92" s="7">
-        <v>6289947</v>
+        <v>6287902.4643999999</v>
       </c>
       <c r="J92" s="7">
-        <v>-70.596172999999993</v>
+        <v>-70.664475871999997</v>
       </c>
       <c r="K92" s="7">
-        <v>-33.519778000000002</v>
+        <v>-33.537971040099997</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>228</v>
+        <v>307</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H93" s="7">
-        <v>347082.1066</v>
+        <v>348282.62060000002</v>
       </c>
       <c r="I93" s="7">
-        <v>6299091.1050000004</v>
+        <v>6287378.7730999999</v>
       </c>
       <c r="J93" s="7">
-        <v>-70.645021322900007</v>
+        <v>-70.634093980200007</v>
       </c>
       <c r="K93" s="7">
-        <v>-33.436680607</v>
+        <v>-33.542449503599997</v>
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H94" s="7">
-        <v>351471.27769999998</v>
+        <v>351765</v>
       </c>
       <c r="I94" s="7">
-        <v>6289869.1039000005</v>
+        <v>6289947</v>
       </c>
       <c r="J94" s="7">
-        <v>-70.599348329700007</v>
+        <v>-70.596172999999993</v>
       </c>
       <c r="K94" s="7">
-        <v>-33.520444900900003</v>
+        <v>-33.519778000000002</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H95" s="7">
-        <v>349736.07429999998</v>
+        <v>348033</v>
       </c>
       <c r="I95" s="7">
-        <v>6293014.0322000002</v>
+        <v>6299017</v>
       </c>
       <c r="J95" s="7">
-        <v>-70.6174987351</v>
+        <v>-70.634804000000003</v>
       </c>
       <c r="K95" s="7">
-        <v>-33.491847477900002</v>
+        <v>-33.437475999999997</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H96" s="7">
-        <v>349578.57860000001</v>
+        <v>347082.1066</v>
       </c>
       <c r="I96" s="7">
-        <v>6293607.8024000004</v>
+        <v>6299091.1050000004</v>
       </c>
       <c r="J96" s="7">
-        <v>-70.619093837099996</v>
+        <v>-70.645021322900007</v>
       </c>
       <c r="K96" s="7">
-        <v>-33.486471874800003</v>
+        <v>-33.436680607</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H97" s="7">
-        <v>348673.86829999997</v>
+        <v>351471.27769999998</v>
       </c>
       <c r="I97" s="7">
-        <v>6297052.9282</v>
+        <v>6289869.1039000005</v>
       </c>
       <c r="J97" s="7">
-        <v>-70.628247318899994</v>
+        <v>-70.599348329700007</v>
       </c>
       <c r="K97" s="7">
-        <v>-33.455282890900001</v>
+        <v>-33.520444900900003</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H98" s="7">
-        <v>349023.348</v>
+        <v>349736.07429999998</v>
       </c>
       <c r="I98" s="7">
-        <v>6295714.4051999999</v>
+        <v>6293014.0322000002</v>
       </c>
       <c r="J98" s="7">
-        <v>-70.624713450399994</v>
+        <v>-70.6174987351</v>
       </c>
       <c r="K98" s="7">
-        <v>-33.467400429999998</v>
+        <v>-33.491847477900002</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>239</v>
+        <v>310</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H99" s="7">
-        <v>350822.38620000001</v>
+        <v>349578.57860000001</v>
       </c>
       <c r="I99" s="7">
-        <v>6290667.6695999997</v>
+        <v>6293607.8024000004</v>
       </c>
       <c r="J99" s="7">
-        <v>-70.606200067900005</v>
+        <v>-70.619093837099996</v>
       </c>
       <c r="K99" s="7">
-        <v>-33.513154569599998</v>
+        <v>-33.486471874800003</v>
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H100" s="7">
-        <v>346563.67629999999</v>
+        <v>348673.86829999997</v>
       </c>
       <c r="I100" s="7">
-        <v>6299017.3164999997</v>
+        <v>6297052.9282</v>
       </c>
       <c r="J100" s="7">
-        <v>-70.650608947400002</v>
+        <v>-70.628247318899994</v>
       </c>
       <c r="K100" s="7">
-        <v>-33.437271791100002</v>
+        <v>-33.455282890900001</v>
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>195</v>
+        <v>83</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H101" s="7">
-        <v>349853.08270000003</v>
+        <v>349023.348</v>
       </c>
       <c r="I101" s="7">
-        <v>6292454.8415999999</v>
+        <v>6295714.4051999999</v>
       </c>
       <c r="J101" s="7">
-        <v>-70.616333350600001</v>
+        <v>-70.624713450399994</v>
       </c>
       <c r="K101" s="7">
-        <v>-33.496905606200002</v>
+        <v>-33.467400429999998</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>244</v>
+        <v>312</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H102" s="7">
-        <v>348345.40830000001</v>
+        <v>350822.38620000001</v>
       </c>
       <c r="I102" s="7">
-        <v>6298431.9188999999</v>
+        <v>6290667.6695999997</v>
       </c>
       <c r="J102" s="7">
-        <v>-70.631547382700006</v>
+        <v>-70.606200067900005</v>
       </c>
       <c r="K102" s="7">
-        <v>-33.442803373700002</v>
+        <v>-33.513154569599998</v>
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>246</v>
+        <v>313</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H103" s="7">
-        <v>343819.41129999998</v>
+        <v>350235.20659999998</v>
       </c>
       <c r="I103" s="7">
-        <v>6298625.3357999995</v>
+        <v>6291225.0215999996</v>
       </c>
       <c r="J103" s="7">
-        <v>-70.680187867000001</v>
+        <v>-70.612426839299999</v>
       </c>
       <c r="K103" s="7">
-        <v>-33.440409448300002</v>
+        <v>-33.508047329599997</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>247</v>
+        <v>136</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H104" s="7">
-        <v>349265.26860000001</v>
+        <v>346563.67629999999</v>
       </c>
       <c r="I104" s="7">
-        <v>6294588.0129000004</v>
+        <v>6299017.3164999997</v>
       </c>
       <c r="J104" s="7">
-        <v>-70.622300247200002</v>
+        <v>-70.650608947400002</v>
       </c>
       <c r="K104" s="7">
-        <v>-33.477590146799997</v>
+        <v>-33.437271791100002</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>249</v>
+        <v>188</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>250</v>
+        <v>314</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H105" s="7">
-        <v>345841</v>
+        <v>349853.08270000003</v>
       </c>
       <c r="I105" s="7">
-        <v>6298895</v>
+        <v>6292454.8415999999</v>
       </c>
       <c r="J105" s="7">
-        <v>-70.658389290948406</v>
+        <v>-70.616333350600001</v>
       </c>
       <c r="K105" s="7">
-        <v>-33.438259635078303</v>
+        <v>-33.496905606200002</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H106" s="7">
-        <v>348457.95740000001</v>
+        <v>348345.40830000001</v>
       </c>
       <c r="I106" s="7">
-        <v>6297953.7800000003</v>
+        <v>6298431.9188999999</v>
       </c>
       <c r="J106" s="7">
-        <v>-70.630417639100003</v>
+        <v>-70.631547382700006</v>
       </c>
       <c r="K106" s="7">
-        <v>-33.447130229999999</v>
+        <v>-33.442803373700002</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H107" s="7">
-        <v>351723</v>
+        <v>343819.41129999998</v>
       </c>
       <c r="I107" s="7">
-        <v>6289194</v>
+        <v>6298625.3357999995</v>
       </c>
       <c r="J107" s="7">
-        <v>-70.596748000000005</v>
+        <v>-70.680187867000001</v>
       </c>
       <c r="K107" s="7">
-        <v>-33.526558999999999</v>
+        <v>-33.440409448300002</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H108" s="7">
-        <v>339837</v>
+        <v>349265.26860000001</v>
       </c>
       <c r="I108" s="7">
-        <v>6298000</v>
+        <v>6294588.0129000004</v>
       </c>
       <c r="J108" s="7">
-        <v>-70.723117999999999</v>
+        <v>-70.622300247200002</v>
       </c>
       <c r="K108" s="7">
-        <v>-33.445453999999998</v>
+        <v>-33.477590146799997</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>257</v>
+        <v>23</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H109" s="7">
-        <v>342697</v>
+        <v>345841</v>
       </c>
       <c r="I109" s="7">
-        <v>6293845</v>
+        <v>6298895</v>
       </c>
       <c r="J109" s="7">
-        <v>-70.693664999999996</v>
+        <v>-70.658389290948406</v>
       </c>
       <c r="K109" s="7">
-        <v>-33.483631000000003</v>
+        <v>-33.438259635078303</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H110" s="7">
-        <v>346808</v>
+        <v>344899.8884</v>
       </c>
       <c r="I110" s="7">
-        <v>6294730</v>
+        <v>6298780.8152000001</v>
       </c>
       <c r="J110" s="7">
-        <v>-70.649276999999998</v>
+        <v>-70.668541583999996</v>
       </c>
       <c r="K110" s="7">
-        <v>-33.47625</v>
+        <v>-33.439164584099998</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>261</v>
+        <v>196</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>262</v>
+        <v>197</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H111" s="7">
-        <v>350634</v>
+        <v>348457.95740000001</v>
       </c>
       <c r="I111" s="7">
-        <v>6299031</v>
+        <v>6297953.7800000003</v>
       </c>
       <c r="J111" s="7">
-        <v>-70.607399000000001</v>
+        <v>-70.630417639100003</v>
       </c>
       <c r="K111" s="7">
-        <v>-33.438011000000003</v>
+        <v>-33.447130229999999</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>265</v>
+        <v>170</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H112" s="7">
-        <v>343935</v>
+        <v>351723</v>
       </c>
       <c r="I112" s="7">
-        <v>6294422</v>
+        <v>6289194</v>
       </c>
       <c r="J112" s="7">
-        <v>-70.680244000000002</v>
+        <v>-70.596748000000005</v>
       </c>
       <c r="K112" s="7">
-        <v>-33.478606999999997</v>
+        <v>-33.526558999999999</v>
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>266</v>
+        <v>199</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>265</v>
+        <v>35</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H113" s="7">
-        <v>345351</v>
+        <v>339837</v>
       </c>
       <c r="I113" s="7">
-        <v>6294460</v>
+        <v>6298000</v>
       </c>
       <c r="J113" s="7">
-        <v>-70.665001000000004</v>
+        <v>-70.723117999999999</v>
       </c>
       <c r="K113" s="7">
-        <v>-33.478470000000002</v>
+        <v>-33.445453999999998</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H114" s="7">
-        <v>350554</v>
+        <v>342697</v>
       </c>
       <c r="I114" s="7">
-        <v>6300779</v>
+        <v>6293845</v>
       </c>
       <c r="J114" s="7">
-        <v>-70.607971000000006</v>
+        <v>-70.693664999999996</v>
       </c>
       <c r="K114" s="7">
-        <v>-33.422237000000003</v>
+        <v>-33.483631000000003</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>270</v>
+        <v>204</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>271</v>
+        <v>205</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H115" s="7">
-        <v>350702</v>
+        <v>346808</v>
       </c>
       <c r="I115" s="7">
-        <v>6296373</v>
+        <v>6294730</v>
       </c>
       <c r="J115" s="7">
-        <v>-70.607108999999994</v>
+        <v>-70.649276999999998</v>
       </c>
       <c r="K115" s="7">
-        <v>-33.46199</v>
+        <v>-33.47625</v>
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H116" s="7">
-        <v>350837</v>
+        <v>350634</v>
       </c>
       <c r="I116" s="7">
-        <v>6297230</v>
+        <v>6299031</v>
       </c>
       <c r="J116" s="7">
-        <v>-70.605514999999997</v>
+        <v>-70.607399000000001</v>
       </c>
       <c r="K116" s="7">
-        <v>-33.454276999999998</v>
+        <v>-33.438011000000003</v>
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H117" s="7">
-        <v>349121</v>
+        <v>343935</v>
       </c>
       <c r="I117" s="7">
-        <v>6295754</v>
+        <v>6294422</v>
       </c>
       <c r="J117" s="7">
-        <v>-70.624222000000003</v>
+        <v>-70.680244000000002</v>
       </c>
       <c r="K117" s="7">
-        <v>-33.467350000000003</v>
+        <v>-33.478606999999997</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H118" s="7">
-        <v>347504</v>
+        <v>345351</v>
       </c>
       <c r="I118" s="7">
-        <v>6294677</v>
+        <v>6294460</v>
       </c>
       <c r="J118" s="7">
-        <v>-70.641800000000003</v>
+        <v>-70.665001000000004</v>
       </c>
       <c r="K118" s="7">
-        <v>-33.476821999999999</v>
+        <v>-33.478470000000002</v>
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>277</v>
+        <v>210</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>277</v>
+        <v>30</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H119" s="7">
-        <v>338211.76539999997</v>
+        <v>350554</v>
       </c>
       <c r="I119" s="7">
-        <v>6298026.7096999995</v>
+        <v>6300779</v>
       </c>
       <c r="J119" s="7">
-        <v>-70.740598791899998</v>
+        <v>-70.607971000000006</v>
       </c>
       <c r="K119" s="7">
-        <v>-33.4449744968</v>
+        <v>-33.422237000000003</v>
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>245</v>
+        <v>83</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H120" s="7">
-        <v>342744.47830000002</v>
+        <v>350702</v>
       </c>
       <c r="I120" s="7">
-        <v>6298830.4702000003</v>
+        <v>6296373</v>
       </c>
       <c r="J120" s="7">
-        <v>-70.691711696300004</v>
+        <v>-70.607108999999994</v>
       </c>
       <c r="K120" s="7">
-        <v>-33.4384028009</v>
+        <v>-33.46199</v>
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>281</v>
+        <v>83</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>245</v>
+        <v>83</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H121" s="7">
-        <v>341304.35369999998</v>
+        <v>350837</v>
       </c>
       <c r="I121" s="7">
-        <v>6298464.8918000003</v>
+        <v>6297230</v>
       </c>
       <c r="J121" s="7">
-        <v>-70.707262767399996</v>
+        <v>-70.605514999999997</v>
       </c>
       <c r="K121" s="7">
-        <v>-33.441486478800002</v>
+        <v>-33.454276999999998</v>
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>283</v>
+        <v>214</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H122" s="7">
+        <v>349121</v>
+      </c>
+      <c r="I122" s="7">
+        <v>6295754</v>
+      </c>
+      <c r="J122" s="7">
+        <v>-70.624222000000003</v>
+      </c>
+      <c r="K122" s="7">
+        <v>-33.467350000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B123" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" s="7">
+        <v>347504</v>
+      </c>
+      <c r="I123" s="7">
+        <v>6294677</v>
+      </c>
+      <c r="J123" s="7">
+        <v>-70.641800000000003</v>
+      </c>
+      <c r="K123" s="7">
+        <v>-33.476821999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B124" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" s="7">
+        <v>338211.76539999997</v>
+      </c>
+      <c r="I124" s="7">
+        <v>6298026.7096999995</v>
+      </c>
+      <c r="J124" s="7">
+        <v>-70.740598791899998</v>
+      </c>
+      <c r="K124" s="7">
+        <v>-33.4449744968</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B125" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" s="7">
+        <v>342744.47830000002</v>
+      </c>
+      <c r="I125" s="7">
+        <v>6298830.4702000003</v>
+      </c>
+      <c r="J125" s="7">
+        <v>-70.691711696300004</v>
+      </c>
+      <c r="K125" s="7">
+        <v>-33.4384028009</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B126" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H126" s="7">
+        <v>341304.35369999998</v>
+      </c>
+      <c r="I126" s="7">
+        <v>6298464.8918000003</v>
+      </c>
+      <c r="J126" s="7">
+        <v>-70.707262767399996</v>
+      </c>
+      <c r="K126" s="7">
+        <v>-33.441486478800002</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B127" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" s="7">
         <v>340503.50349999999</v>
       </c>
-      <c r="I122" s="7">
+      <c r="I127" s="7">
         <v>6298251.0533999996</v>
       </c>
-      <c r="J122" s="7">
+      <c r="J127" s="7">
         <v>-70.715912996599997</v>
       </c>
-      <c r="K122" s="7">
+      <c r="K127" s="7">
         <v>-33.443295480000003</v>
       </c>
     </row>
@@ -5138,11 +5304,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K32"/>
+  <dimension ref="B1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5222,28 +5386,28 @@
         <v>0</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>285</v>
+        <v>221</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="7">
-        <v>348189</v>
+        <v>339892.76059999998</v>
       </c>
       <c r="I10" s="7">
-        <v>6299042</v>
+        <v>6297326.8838</v>
       </c>
       <c r="J10" s="7">
-        <v>-70.633118999999994</v>
+        <v>-70.722645723100001</v>
       </c>
       <c r="K10" s="7">
-        <v>-33.437277000000002</v>
+        <v>-33.451536378500002</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -5254,699 +5418,539 @@
         <v>0</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>286</v>
+        <v>222</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>287</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>339892.76059999998</v>
+        <v>339837</v>
       </c>
       <c r="I11" s="7">
-        <v>6297326.8838</v>
+        <v>6298000</v>
       </c>
       <c r="J11" s="7">
-        <v>-70.722645723100001</v>
+        <v>-70.723117999999999</v>
       </c>
       <c r="K11" s="7">
-        <v>-33.451536378500002</v>
+        <v>-33.445453999999998</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>288</v>
+        <v>227</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="7">
-        <v>339837</v>
+        <v>353003.5453</v>
       </c>
       <c r="I12" s="7">
-        <v>6298000</v>
+        <v>6284455.6363000004</v>
       </c>
       <c r="J12" s="7">
-        <v>-70.723117999999999</v>
+        <v>-70.5837448005</v>
       </c>
       <c r="K12" s="7">
-        <v>-33.445453999999998</v>
+        <v>-33.569465354499997</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="7">
-        <v>343208</v>
+        <v>352856.79570000002</v>
       </c>
       <c r="I13" s="7">
-        <v>6306090</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>6285355.4007000001</v>
+      </c>
+      <c r="J13" s="7">
+        <v>-70.585177083299996</v>
+      </c>
+      <c r="K13" s="7">
+        <v>-33.561332756600002</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>293</v>
+        <v>159</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>353003.5453</v>
+        <v>352321.11749999999</v>
       </c>
       <c r="I14" s="7">
-        <v>6284455.6363000004</v>
+        <v>6291126.8134000003</v>
       </c>
       <c r="J14" s="7">
-        <v>-70.5837448005</v>
+        <v>-70.589992891099996</v>
       </c>
       <c r="K14" s="7">
-        <v>-33.569465354499997</v>
+        <v>-33.5092230156</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>295</v>
+        <v>232</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" s="7">
-        <v>352856.79570000002</v>
+        <v>353404.64059999998</v>
       </c>
       <c r="I15" s="7">
-        <v>6285355.4007000001</v>
+        <v>6282211.523</v>
       </c>
       <c r="J15" s="7">
-        <v>-70.585177083299996</v>
+        <v>-70.579793516899997</v>
       </c>
       <c r="K15" s="7">
-        <v>-33.561332756600002</v>
+        <v>-33.589753709900002</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" s="7">
-        <v>352321.11749999999</v>
+        <v>352717.09539999999</v>
       </c>
       <c r="I16" s="7">
-        <v>6291126.8134000003</v>
+        <v>6286238.0525000002</v>
       </c>
       <c r="J16" s="7">
-        <v>-70.589992891099996</v>
+        <v>-70.586536039899997</v>
       </c>
       <c r="K16" s="7">
-        <v>-33.5092230156</v>
+        <v>-33.553355401700003</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>298</v>
+        <v>236</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>353404.64059999998</v>
+        <v>352580.20539999998</v>
       </c>
       <c r="I17" s="7">
-        <v>6282211.523</v>
+        <v>6286987.3130999999</v>
       </c>
       <c r="J17" s="7">
-        <v>-70.579793516899997</v>
+        <v>-70.587886518900007</v>
       </c>
       <c r="K17" s="7">
-        <v>-33.589753709900002</v>
+        <v>-33.546581087100002</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>300</v>
+        <v>176</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" s="7">
-        <v>352717.09539999999</v>
+        <v>349955.85340000002</v>
       </c>
       <c r="I18" s="7">
-        <v>6286238.0525000002</v>
+        <v>6287544.5532999998</v>
       </c>
       <c r="J18" s="7">
-        <v>-70.586536039899997</v>
+        <v>-70.616050647600005</v>
       </c>
       <c r="K18" s="7">
-        <v>-33.553355401700003</v>
+        <v>-33.541191322300001</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>303</v>
+        <v>240</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="7">
-        <v>352580.20539999998</v>
+        <v>346685.47970000003</v>
       </c>
       <c r="I19" s="7">
-        <v>6286987.3130999999</v>
+        <v>6287624.1913000001</v>
       </c>
       <c r="J19" s="7">
-        <v>-70.587886518900007</v>
+        <v>-70.651247928999993</v>
       </c>
       <c r="K19" s="7">
-        <v>-33.546581087100002</v>
+        <v>-33.540008673199999</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" s="7">
-        <v>349955.85340000002</v>
+        <v>350919.43359999999</v>
       </c>
       <c r="I20" s="7">
-        <v>6287544.5532999998</v>
+        <v>6288671.9950000001</v>
       </c>
       <c r="J20" s="7">
-        <v>-70.616050647600005</v>
+        <v>-70.605488003900007</v>
       </c>
       <c r="K20" s="7">
-        <v>-33.541191322300001</v>
+        <v>-33.531161249999997</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>221</v>
+      <c r="B21" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>305</v>
+        <v>244</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>306</v>
+        <v>245</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>305</v>
+        <v>216</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" s="7">
-        <v>346685.47970000003</v>
+        <v>338375.05310000002</v>
       </c>
       <c r="I21" s="7">
-        <v>6287624.1913000001</v>
+        <v>6297139.5060999999</v>
       </c>
       <c r="J21" s="7">
-        <v>-70.651247928999993</v>
+        <v>-70.739002434400007</v>
       </c>
       <c r="K21" s="7">
-        <v>-33.540008673199999</v>
+        <v>-33.452997776399997</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>221</v>
+      <c r="B22" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>307</v>
+        <v>246</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" s="7">
-        <v>350919.43359999999</v>
+        <v>337167.56170000002</v>
       </c>
       <c r="I22" s="7">
-        <v>6288671.9950000001</v>
+        <v>6293032.9939999999</v>
       </c>
       <c r="J22" s="7">
-        <v>-70.605488003900007</v>
+        <v>-70.752734535900004</v>
       </c>
       <c r="K22" s="7">
-        <v>-33.531161249999997</v>
+        <v>-33.4898370035</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>42</v>
+        <v>216</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H23" s="7">
-        <v>348033</v>
+        <v>338505.20730000001</v>
       </c>
       <c r="I23" s="7">
-        <v>6299017</v>
+        <v>6296045.7747</v>
       </c>
       <c r="J23" s="7">
-        <v>-70.634804000000003</v>
+        <v>-70.737799367500003</v>
       </c>
       <c r="K23" s="7">
-        <v>-33.437475999999997</v>
+        <v>-33.462877999299998</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>310</v>
+        <v>251</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>311</v>
+        <v>252</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" s="7">
-        <v>338375.05310000002</v>
+        <v>338189.02960000001</v>
       </c>
       <c r="I24" s="7">
-        <v>6297139.5060999999</v>
+        <v>6294434.6138000004</v>
       </c>
       <c r="J24" s="7">
-        <v>-70.739002434400007</v>
+        <v>-70.741490890600005</v>
       </c>
       <c r="K24" s="7">
-        <v>-33.452997776399997</v>
+        <v>-33.4773557137</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>312</v>
+        <v>253</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>313</v>
+        <v>254</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>314</v>
+        <v>248</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H25" s="7">
-        <v>337167.56170000002</v>
+        <v>337837.17080000002</v>
       </c>
       <c r="I25" s="7">
-        <v>6293032.9939999999</v>
+        <v>6293900.6787999999</v>
       </c>
       <c r="J25" s="7">
-        <v>-70.752734535900004</v>
+        <v>-70.745372798899993</v>
       </c>
       <c r="K25" s="7">
-        <v>-33.4898370035</v>
+        <v>-33.482116136899997</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>315</v>
+        <v>256</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>316</v>
+        <v>257</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H26" s="7">
-        <v>338505.20730000001</v>
+        <v>336785.23100000003</v>
       </c>
       <c r="I26" s="7">
-        <v>6296045.7747</v>
+        <v>6290719.2932000002</v>
       </c>
       <c r="J26" s="7">
-        <v>-70.737799367500003</v>
+        <v>-70.757269823399994</v>
       </c>
       <c r="K26" s="7">
-        <v>-33.462877999299998</v>
+        <v>-33.510637665700003</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>317</v>
+        <v>258</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>318</v>
+        <v>259</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>314</v>
+        <v>248</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H27" s="7">
-        <v>338189.02960000001</v>
+        <v>336743.63500000001</v>
       </c>
       <c r="I27" s="7">
-        <v>6294434.6138000004</v>
+        <v>6292296.1769000003</v>
       </c>
       <c r="J27" s="7">
-        <v>-70.741490890600005</v>
+        <v>-70.757430063399994</v>
       </c>
       <c r="K27" s="7">
-        <v>-33.4773557137</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="7">
-        <v>337837.17080000002</v>
-      </c>
-      <c r="I28" s="7">
-        <v>6293900.6787999999</v>
-      </c>
-      <c r="J28" s="7">
-        <v>-70.745372798899993</v>
-      </c>
-      <c r="K28" s="7">
-        <v>-33.482116136899997</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="7">
-        <v>350235.20659999998</v>
-      </c>
-      <c r="I29" s="7">
-        <v>6291225.0215999996</v>
-      </c>
-      <c r="J29" s="7">
-        <v>-70.612426839299999</v>
-      </c>
-      <c r="K29" s="7">
-        <v>-33.508047329599997</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="7">
-        <v>336785.23100000003</v>
-      </c>
-      <c r="I30" s="7">
-        <v>6290719.2932000002</v>
-      </c>
-      <c r="J30" s="7">
-        <v>-70.757269823399994</v>
-      </c>
-      <c r="K30" s="7">
-        <v>-33.510637665700003</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="7">
-        <v>344899.8884</v>
-      </c>
-      <c r="I31" s="7">
-        <v>6298780.8152000001</v>
-      </c>
-      <c r="J31" s="7">
-        <v>-70.668541583999996</v>
-      </c>
-      <c r="K31" s="7">
-        <v>-33.439164584099998</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="7">
-        <v>336743.63500000001</v>
-      </c>
-      <c r="I32" s="7">
-        <v>6292296.1769000003</v>
-      </c>
-      <c r="J32" s="7">
-        <v>-70.757430063399994</v>
-      </c>
-      <c r="K32" s="7">
         <v>-33.496415091999999</v>
       </c>
     </row>

--- a/inputs/bip/subway.xlsx
+++ b/inputs/bip/subway.xlsx
@@ -674,9 +674,6 @@
     <t>Avda. Vicuña Mackenna Frente al 11145</t>
   </si>
   <si>
-    <t>Avda. Macul 6309</t>
-  </si>
-  <si>
     <t>PROTECTORA DE LA INFANCIA</t>
   </si>
   <si>
@@ -1020,6 +1017,9 @@
   </si>
   <si>
     <t>Av. Gral. Bonilla 8220</t>
+  </si>
+  <si>
+    <t>Av. Macul 6309</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J132"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1543,7 +1543,7 @@
         <v>210</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>34</v>
@@ -1575,7 +1575,7 @@
         <v>209</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>34</v>
@@ -1607,7 +1607,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>34</v>
@@ -1639,7 +1639,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>19</v>
@@ -1671,7 +1671,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>19</v>
@@ -1700,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>19</v>
@@ -1735,7 +1735,7 @@
         <v>42</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>19</v>
@@ -1767,7 +1767,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>19</v>
@@ -1799,7 +1799,7 @@
         <v>38</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>23</v>
@@ -1831,7 +1831,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>23</v>
@@ -1863,7 +1863,7 @@
         <v>22</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>23</v>
@@ -1895,7 +1895,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>23</v>
@@ -1927,7 +1927,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>23</v>
@@ -1959,7 +1959,7 @@
         <v>39</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>23</v>
@@ -1991,7 +1991,7 @@
         <v>40</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>23</v>
@@ -2023,7 +2023,7 @@
         <v>208</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>30</v>
@@ -2055,7 +2055,7 @@
         <v>36</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>30</v>
@@ -2087,7 +2087,7 @@
         <v>32</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>30</v>
@@ -2119,7 +2119,7 @@
         <v>35</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>30</v>
@@ -2151,7 +2151,7 @@
         <v>29</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>30</v>
@@ -2183,7 +2183,7 @@
         <v>37</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>30</v>
@@ -2215,7 +2215,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>16</v>
@@ -2247,7 +2247,7 @@
         <v>15</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>16</v>
@@ -2279,7 +2279,7 @@
         <v>21</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>16</v>
@@ -2311,7 +2311,7 @@
         <v>31</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>16</v>
@@ -2343,7 +2343,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>16</v>
@@ -2375,7 +2375,7 @@
         <v>28</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>16</v>
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>60</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>48</v>
@@ -2631,7 +2631,7 @@
         <v>52</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>49</v>
@@ -2695,7 +2695,7 @@
         <v>67</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>23</v>
@@ -2727,7 +2727,7 @@
         <v>65</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>23</v>
@@ -2791,7 +2791,7 @@
         <v>71</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>23</v>
@@ -2887,7 +2887,7 @@
         <v>66</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>46</v>
@@ -2919,7 +2919,7 @@
         <v>47</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>46</v>
@@ -2951,7 +2951,7 @@
         <v>45</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>46</v>
@@ -2983,7 +2983,7 @@
         <v>51</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>46</v>
@@ -3015,7 +3015,7 @@
         <v>50</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>46</v>
@@ -3047,7 +3047,7 @@
         <v>76</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>46</v>
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>129</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>133</v>
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>136</v>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>125</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>113</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>78</v>
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>121</v>
@@ -3687,7 +3687,7 @@
         <v>164</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>30</v>
@@ -3783,7 +3783,7 @@
         <v>156</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>79</v>
@@ -3815,7 +3815,7 @@
         <v>158</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>79</v>
@@ -3847,7 +3847,7 @@
         <v>120</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>79</v>
@@ -3879,7 +3879,7 @@
         <v>153</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>79</v>
@@ -3911,7 +3911,7 @@
         <v>152</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>79</v>
@@ -3943,7 +3943,7 @@
         <v>154</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>155</v>
@@ -3975,7 +3975,7 @@
         <v>157</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>155</v>
@@ -4007,7 +4007,7 @@
         <v>161</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>155</v>
@@ -4029,35 +4029,35 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="7" t="s">
         <v>147</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G87" s="8">
-        <v>351765</v>
+        <v>352321.11749999999</v>
       </c>
       <c r="H87" s="8">
-        <v>6289947</v>
+        <v>6291126.8134000003</v>
       </c>
       <c r="I87" s="8">
-        <v>-70.596172999999993</v>
+        <v>-70.589992891099996</v>
       </c>
       <c r="J87" s="8">
-        <v>-33.519778000000002</v>
+        <v>-33.5092230156</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4068,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>163</v>
@@ -4080,16 +4080,16 @@
         <v>17</v>
       </c>
       <c r="G88" s="8">
-        <v>351723</v>
+        <v>351765</v>
       </c>
       <c r="H88" s="8">
-        <v>6289194</v>
+        <v>6289947</v>
       </c>
       <c r="I88" s="8">
-        <v>-70.596748000000005</v>
+        <v>-70.596172999999993</v>
       </c>
       <c r="J88" s="8">
-        <v>-33.526558999999999</v>
+        <v>-33.519778000000002</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4100,10 +4100,10 @@
         <v>0</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>163</v>
@@ -4112,16 +4112,16 @@
         <v>17</v>
       </c>
       <c r="G89" s="8">
-        <v>352123.85930000001</v>
+        <v>351723</v>
       </c>
       <c r="H89" s="8">
-        <v>6288135.2562999995</v>
+        <v>6289194</v>
       </c>
       <c r="I89" s="8">
-        <v>-70.592610365699997</v>
+        <v>-70.596748000000005</v>
       </c>
       <c r="J89" s="8">
-        <v>-33.536167994099998</v>
+        <v>-33.526558999999999</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4132,412 +4132,412 @@
         <v>0</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>326</v>
+        <v>162</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>287</v>
       </c>
       <c r="E90" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90" s="8">
+        <v>352123.85930000001</v>
+      </c>
+      <c r="H90" s="8">
+        <v>6288135.2562999995</v>
+      </c>
+      <c r="I90" s="8">
+        <v>-70.592610365699997</v>
+      </c>
+      <c r="J90" s="8">
+        <v>-33.536167994099998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" s="8">
+        <v>352717.09539999999</v>
+      </c>
+      <c r="H91" s="8">
+        <v>6286238.0525000002</v>
+      </c>
+      <c r="I91" s="8">
+        <v>-70.586536039899997</v>
+      </c>
+      <c r="J91" s="8">
+        <v>-33.553355401700003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" s="8">
+        <v>352856.79570000002</v>
+      </c>
+      <c r="H92" s="8">
+        <v>6285355.4007000001</v>
+      </c>
+      <c r="I92" s="8">
+        <v>-70.585177083299996</v>
+      </c>
+      <c r="J92" s="8">
+        <v>-33.561332756600002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E93" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F90" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" s="8">
-        <v>353162.1116</v>
-      </c>
-      <c r="H90" s="8">
-        <v>6283611.0866999999</v>
-      </c>
-      <c r="I90" s="8">
-        <v>-70.5821759114</v>
-      </c>
-      <c r="J90" s="8">
-        <v>-33.577101739500002</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91" s="8">
-        <v>353627.18900000001</v>
-      </c>
-      <c r="H91" s="8">
-        <v>6280998.5488</v>
-      </c>
-      <c r="I91" s="8">
-        <v>-70.577595141100005</v>
-      </c>
-      <c r="J91" s="8">
-        <v>-33.600720579399997</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" s="8">
-        <v>353814.41879999998</v>
-      </c>
-      <c r="H92" s="8">
-        <v>6279920.8691999996</v>
-      </c>
-      <c r="I92" s="8">
-        <v>-70.575754647699995</v>
-      </c>
-      <c r="J92" s="8">
-        <v>-33.610462733200002</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>163</v>
-      </c>
       <c r="F93" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G93" s="8">
-        <v>351765</v>
+        <v>353003.5453</v>
       </c>
       <c r="H93" s="8">
-        <v>6289947</v>
+        <v>6284455.6363000004</v>
       </c>
       <c r="I93" s="8">
-        <v>-70.596172999999993</v>
+        <v>-70.5837448005</v>
       </c>
       <c r="J93" s="8">
-        <v>-33.519778000000002</v>
+        <v>-33.569465354499997</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>168</v>
+        <v>325</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F94" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G94" s="8">
-        <v>348282.62060000002</v>
+        <v>353162.1116</v>
       </c>
       <c r="H94" s="8">
-        <v>6287378.7730999999</v>
+        <v>6283611.0866999999</v>
       </c>
       <c r="I94" s="8">
-        <v>-70.634093980200007</v>
+        <v>-70.5821759114</v>
       </c>
       <c r="J94" s="8">
-        <v>-33.542449503599997</v>
+        <v>-33.577101739500002</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>327</v>
+        <v>159</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>60</v>
+        <v>283</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="F95" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G95" s="8">
-        <v>345453.53330000001</v>
+        <v>353627.18900000001</v>
       </c>
       <c r="H95" s="8">
-        <v>6287902.4643999999</v>
+        <v>6280998.5488</v>
       </c>
       <c r="I95" s="8">
-        <v>-70.664475871999997</v>
+        <v>-70.577595141100005</v>
       </c>
       <c r="J95" s="8">
-        <v>-33.537971040099997</v>
+        <v>-33.600720579399997</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>242</v>
+        <v>324</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="F96" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G96" s="8">
-        <v>336785.23100000003</v>
+        <v>353814.41879999998</v>
       </c>
       <c r="H96" s="8">
-        <v>6290719.2932000002</v>
+        <v>6279920.8691999996</v>
       </c>
       <c r="I96" s="8">
-        <v>-70.757269823399994</v>
+        <v>-70.575754647699995</v>
       </c>
       <c r="J96" s="8">
-        <v>-33.510637665700003</v>
+        <v>-33.610462733200002</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>235</v>
+        <v>163</v>
       </c>
       <c r="F97" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G97" s="8">
-        <v>336743.63500000001</v>
+        <v>351765</v>
       </c>
       <c r="H97" s="8">
-        <v>6292296.1769000003</v>
+        <v>6289947</v>
       </c>
       <c r="I97" s="8">
-        <v>-70.757430063399994</v>
+        <v>-70.596172999999993</v>
       </c>
       <c r="J97" s="8">
-        <v>-33.496415091999999</v>
+        <v>-33.519778000000002</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
-        <v>170</v>
+      <c r="A98" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>333</v>
+        <v>229</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>235</v>
+        <v>163</v>
       </c>
       <c r="F98" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G98" s="8">
-        <v>337837.17080000002</v>
+        <v>350919.43359999999</v>
       </c>
       <c r="H98" s="8">
-        <v>6293900.6787999999</v>
+        <v>6288671.9950000001</v>
       </c>
       <c r="I98" s="8">
-        <v>-70.745372798899993</v>
+        <v>-70.605488003900007</v>
       </c>
       <c r="J98" s="8">
-        <v>-33.482116136899997</v>
+        <v>-33.531161249999997</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
-        <v>170</v>
+      <c r="A99" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>334</v>
+        <v>225</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="F99" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G99" s="8">
-        <v>338375.05310000002</v>
+        <v>349955.85340000002</v>
       </c>
       <c r="H99" s="8">
-        <v>6297139.5060999999</v>
+        <v>6287544.5532999998</v>
       </c>
       <c r="I99" s="8">
-        <v>-70.739002434400007</v>
+        <v>-70.616050647600005</v>
       </c>
       <c r="J99" s="8">
-        <v>-33.452997776399997</v>
+        <v>-33.541191322300001</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="F100" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G100" s="8">
-        <v>338211.76539999997</v>
+        <v>348282.62060000002</v>
       </c>
       <c r="H100" s="8">
-        <v>6298026.7096999995</v>
+        <v>6287378.7730999999</v>
       </c>
       <c r="I100" s="8">
-        <v>-70.740598791899998</v>
+        <v>-70.634093980200007</v>
       </c>
       <c r="J100" s="8">
-        <v>-33.4449744968</v>
+        <v>-33.542449503599997</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
-        <v>170</v>
+      <c r="A101" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>301</v>
+        <v>227</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G101" s="8">
-        <v>339837</v>
+        <v>346685.47970000003</v>
       </c>
       <c r="H101" s="8">
-        <v>6298000</v>
+        <v>6287624.1913000001</v>
       </c>
       <c r="I101" s="8">
-        <v>-70.723117999999999</v>
+        <v>-70.651247928999993</v>
       </c>
       <c r="J101" s="8">
-        <v>-33.445453999999998</v>
+        <v>-33.540008673199999</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>34</v>
+        <v>326</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>311</v>
+        <v>60</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F102" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G102" s="8">
-        <v>340503.50349999999</v>
+        <v>345453.53330000001</v>
       </c>
       <c r="H102" s="8">
-        <v>6298251.0533999996</v>
+        <v>6287902.4643999999</v>
       </c>
       <c r="I102" s="8">
-        <v>-70.715912996599997</v>
+        <v>-70.664475871999997</v>
       </c>
       <c r="J102" s="8">
-        <v>-33.443295480000003</v>
+        <v>-33.537971040099997</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4548,28 +4548,28 @@
         <v>0</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="F103" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G103" s="8">
-        <v>341304.35369999998</v>
+        <v>336785.23100000003</v>
       </c>
       <c r="H103" s="8">
-        <v>6298464.8918000003</v>
+        <v>6290719.2932000002</v>
       </c>
       <c r="I103" s="8">
-        <v>-70.707262767399996</v>
+        <v>-70.757269823399994</v>
       </c>
       <c r="J103" s="8">
-        <v>-33.441486478800002</v>
+        <v>-33.510637665700003</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4580,28 +4580,28 @@
         <v>0</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="F104" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G104" s="8">
-        <v>342744.47830000002</v>
+        <v>336743.63500000001</v>
       </c>
       <c r="H104" s="8">
-        <v>6298830.4702000003</v>
+        <v>6292296.1769000003</v>
       </c>
       <c r="I104" s="8">
-        <v>-70.691711696300004</v>
+        <v>-70.757430063399994</v>
       </c>
       <c r="J104" s="8">
-        <v>-33.4384028009</v>
+        <v>-33.496415091999999</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4612,28 +4612,28 @@
         <v>0</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="F105" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G105" s="8">
-        <v>343819.41129999998</v>
+        <v>337167.56170000002</v>
       </c>
       <c r="H105" s="8">
-        <v>6298625.3357999995</v>
+        <v>6293032.9939999999</v>
       </c>
       <c r="I105" s="8">
-        <v>-70.680187867000001</v>
+        <v>-70.752734535900004</v>
       </c>
       <c r="J105" s="8">
-        <v>-33.440409448300002</v>
+        <v>-33.4898370035</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4644,28 +4644,28 @@
         <v>0</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="F106" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G106" s="8">
-        <v>344899.8884</v>
+        <v>337837.17080000002</v>
       </c>
       <c r="H106" s="8">
-        <v>6298780.8152000001</v>
+        <v>6293900.6787999999</v>
       </c>
       <c r="I106" s="8">
-        <v>-70.668541583999996</v>
+        <v>-70.745372798899993</v>
       </c>
       <c r="J106" s="8">
-        <v>-33.439164584099998</v>
+        <v>-33.482116136899997</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4676,28 +4676,28 @@
         <v>0</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="F107" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G107" s="8">
-        <v>345841</v>
+        <v>338189.02960000001</v>
       </c>
       <c r="H107" s="8">
-        <v>6298895</v>
+        <v>6294434.6138000004</v>
       </c>
       <c r="I107" s="8">
-        <v>-70.658389290948406</v>
+        <v>-70.741490890600005</v>
       </c>
       <c r="J107" s="8">
-        <v>-33.438259635078303</v>
+        <v>-33.4773557137</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4708,28 +4708,28 @@
         <v>0</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="F108" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G108" s="8">
-        <v>346563.67629999999</v>
+        <v>338505.20730000001</v>
       </c>
       <c r="H108" s="8">
-        <v>6299017.3164999997</v>
+        <v>6296045.7747</v>
       </c>
       <c r="I108" s="8">
-        <v>-70.650608947400002</v>
+        <v>-70.737799367500003</v>
       </c>
       <c r="J108" s="8">
-        <v>-33.437271791100002</v>
+        <v>-33.462877999299998</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4740,28 +4740,28 @@
         <v>0</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>172</v>
+        <v>333</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G109" s="8">
-        <v>347082.1066</v>
+        <v>338375.05310000002</v>
       </c>
       <c r="H109" s="8">
-        <v>6299091.1050000004</v>
+        <v>6297139.5060999999</v>
       </c>
       <c r="I109" s="8">
-        <v>-70.645021322900007</v>
+        <v>-70.739002434400007</v>
       </c>
       <c r="J109" s="8">
-        <v>-33.436680607</v>
+        <v>-33.452997776399997</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4772,28 +4772,28 @@
         <v>0</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>30</v>
+        <v>205</v>
       </c>
       <c r="F110" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G110" s="8">
-        <v>348033</v>
+        <v>338211.76539999997</v>
       </c>
       <c r="H110" s="8">
-        <v>6299017</v>
+        <v>6298026.7096999995</v>
       </c>
       <c r="I110" s="8">
-        <v>-70.634804000000003</v>
+        <v>-70.740598791899998</v>
       </c>
       <c r="J110" s="8">
-        <v>-33.437475999999997</v>
+        <v>-33.4449744968</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4804,28 +4804,28 @@
         <v>0</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>181</v>
+        <v>300</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F111" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G111" s="8">
-        <v>348345.40830000001</v>
+        <v>339837</v>
       </c>
       <c r="H111" s="8">
-        <v>6298431.9188999999</v>
+        <v>6298000</v>
       </c>
       <c r="I111" s="8">
-        <v>-70.631547382700006</v>
+        <v>-70.723117999999999</v>
       </c>
       <c r="J111" s="8">
-        <v>-33.442803373700002</v>
+        <v>-33.445453999999998</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4836,28 +4836,28 @@
         <v>0</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>188</v>
+        <v>310</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F112" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G112" s="8">
-        <v>348457.95740000001</v>
+        <v>340503.50349999999</v>
       </c>
       <c r="H112" s="8">
-        <v>6297953.7800000003</v>
+        <v>6298251.0533999996</v>
       </c>
       <c r="I112" s="8">
-        <v>-70.630417639100003</v>
+        <v>-70.715912996599997</v>
       </c>
       <c r="J112" s="8">
-        <v>-33.447130229999999</v>
+        <v>-33.443295480000003</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4868,28 +4868,28 @@
         <v>0</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>124</v>
+        <v>207</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="F113" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G113" s="8">
-        <v>348673.86829999997</v>
+        <v>341304.35369999998</v>
       </c>
       <c r="H113" s="8">
-        <v>6297052.9282</v>
+        <v>6298464.8918000003</v>
       </c>
       <c r="I113" s="8">
-        <v>-70.628247318899994</v>
+        <v>-70.707262767399996</v>
       </c>
       <c r="J113" s="8">
-        <v>-33.455282890900001</v>
+        <v>-33.441486478800002</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4900,28 +4900,28 @@
         <v>0</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>176</v>
+        <v>308</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="F114" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G114" s="8">
-        <v>349023.348</v>
+        <v>342744.47830000002</v>
       </c>
       <c r="H114" s="8">
-        <v>6295714.4051999999</v>
+        <v>6298830.4702000003</v>
       </c>
       <c r="I114" s="8">
-        <v>-70.624713450399994</v>
+        <v>-70.691711696300004</v>
       </c>
       <c r="J114" s="8">
-        <v>-33.467400429999998</v>
+        <v>-33.4384028009</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4932,28 +4932,28 @@
         <v>0</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>299</v>
+        <v>183</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="F115" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G115" s="8">
-        <v>349265.26860000001</v>
+        <v>343819.41129999998</v>
       </c>
       <c r="H115" s="8">
-        <v>6294588.0129000004</v>
+        <v>6298625.3357999995</v>
       </c>
       <c r="I115" s="8">
-        <v>-70.622300247200002</v>
+        <v>-70.680187867000001</v>
       </c>
       <c r="J115" s="8">
-        <v>-33.477590146799997</v>
+        <v>-33.440409448300002</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4964,28 +4964,28 @@
         <v>0</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="F116" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G116" s="8">
-        <v>349578.57860000001</v>
+        <v>344899.8884</v>
       </c>
       <c r="H116" s="8">
-        <v>6293607.8024000004</v>
+        <v>6298780.8152000001</v>
       </c>
       <c r="I116" s="8">
-        <v>-70.619093837099996</v>
+        <v>-70.668541583999996</v>
       </c>
       <c r="J116" s="8">
-        <v>-33.486471874800003</v>
+        <v>-33.439164584099998</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4996,28 +4996,28 @@
         <v>0</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>293</v>
+        <v>186</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="F117" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G117" s="8">
-        <v>349736.07429999998</v>
+        <v>345841</v>
       </c>
       <c r="H117" s="8">
-        <v>6293014.0322000002</v>
+        <v>6298895</v>
       </c>
       <c r="I117" s="8">
-        <v>-70.6174987351</v>
+        <v>-70.658389290948406</v>
       </c>
       <c r="J117" s="8">
-        <v>-33.491847477900002</v>
+        <v>-33.438259635078303</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5028,28 +5028,28 @@
         <v>0</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>298</v>
+        <v>178</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="F118" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G118" s="8">
-        <v>349853.08270000003</v>
+        <v>346563.67629999999</v>
       </c>
       <c r="H118" s="8">
-        <v>6292454.8415999999</v>
+        <v>6299017.3164999997</v>
       </c>
       <c r="I118" s="8">
-        <v>-70.616333350600001</v>
+        <v>-70.650608947400002</v>
       </c>
       <c r="J118" s="8">
-        <v>-33.496905606200002</v>
+        <v>-33.437271791100002</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5060,28 +5060,28 @@
         <v>0</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>297</v>
+        <v>172</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="F119" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G119" s="8">
-        <v>350235.20659999998</v>
+        <v>347082.1066</v>
       </c>
       <c r="H119" s="8">
-        <v>6291225.0215999996</v>
+        <v>6299091.1050000004</v>
       </c>
       <c r="I119" s="8">
-        <v>-70.612426839299999</v>
+        <v>-70.645021322900007</v>
       </c>
       <c r="J119" s="8">
-        <v>-33.508047329599997</v>
+        <v>-33.436680607</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5092,28 +5092,28 @@
         <v>0</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="F120" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G120" s="8">
-        <v>350822.38620000001</v>
+        <v>348033</v>
       </c>
       <c r="H120" s="8">
-        <v>6290667.6695999997</v>
+        <v>6299017</v>
       </c>
       <c r="I120" s="8">
-        <v>-70.606200067900005</v>
+        <v>-70.634804000000003</v>
       </c>
       <c r="J120" s="8">
-        <v>-33.513154569599998</v>
+        <v>-33.437475999999997</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5124,28 +5124,28 @@
         <v>0</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>314</v>
+        <v>180</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="F121" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G121" s="8">
-        <v>351471.27769999998</v>
+        <v>348345.40830000001</v>
       </c>
       <c r="H121" s="8">
-        <v>6289869.1039000005</v>
+        <v>6298431.9188999999</v>
       </c>
       <c r="I121" s="8">
-        <v>-70.599348329700007</v>
+        <v>-70.631547382700006</v>
       </c>
       <c r="J121" s="8">
-        <v>-33.520444900900003</v>
+        <v>-33.442803373700002</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5156,347 +5156,667 @@
         <v>0</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>290</v>
+        <v>188</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="F122" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G122" s="8">
-        <v>351723</v>
+        <v>348457.95740000001</v>
       </c>
       <c r="H122" s="8">
-        <v>6289194</v>
+        <v>6297953.7800000003</v>
       </c>
       <c r="I122" s="8">
-        <v>-70.596748000000005</v>
+        <v>-70.630417639100003</v>
       </c>
       <c r="J122" s="8">
-        <v>-33.526558999999999</v>
+        <v>-33.447130229999999</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>192</v>
+        <v>124</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>193</v>
+        <v>294</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="F123" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G123" s="8">
-        <v>342697</v>
+        <v>348673.86829999997</v>
       </c>
       <c r="H123" s="8">
-        <v>6293845</v>
+        <v>6297052.9282</v>
       </c>
       <c r="I123" s="8">
-        <v>-70.693664999999996</v>
+        <v>-70.628247318899994</v>
       </c>
       <c r="J123" s="8">
-        <v>-33.483631000000003</v>
+        <v>-33.455282890900001</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>303</v>
+        <v>176</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="F124" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G124" s="8">
-        <v>343935</v>
+        <v>349023.348</v>
       </c>
       <c r="H124" s="8">
-        <v>6294422</v>
+        <v>6295714.4051999999</v>
       </c>
       <c r="I124" s="8">
-        <v>-70.680244000000002</v>
+        <v>-70.624713450399994</v>
       </c>
       <c r="J124" s="8">
-        <v>-33.478606999999997</v>
+        <v>-33.467400429999998</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="F125" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G125" s="8">
-        <v>345351</v>
+        <v>349265.26860000001</v>
       </c>
       <c r="H125" s="8">
-        <v>6294460</v>
+        <v>6294588.0129000004</v>
       </c>
       <c r="I125" s="8">
-        <v>-70.665001000000004</v>
+        <v>-70.622300247200002</v>
       </c>
       <c r="J125" s="8">
-        <v>-33.478470000000002</v>
+        <v>-33.477590146799997</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>195</v>
+        <v>293</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="F126" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G126" s="8">
-        <v>346808</v>
+        <v>349578.57860000001</v>
       </c>
       <c r="H126" s="8">
-        <v>6294730</v>
+        <v>6293607.8024000004</v>
       </c>
       <c r="I126" s="8">
-        <v>-70.649276999999998</v>
+        <v>-70.619093837099996</v>
       </c>
       <c r="J126" s="8">
-        <v>-33.47625</v>
+        <v>-33.486471874800003</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="F127" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G127" s="8">
-        <v>347504</v>
+        <v>349736.07429999998</v>
       </c>
       <c r="H127" s="8">
-        <v>6294677</v>
+        <v>6293014.0322000002</v>
       </c>
       <c r="I127" s="8">
-        <v>-70.641800000000003</v>
+        <v>-70.6174987351</v>
       </c>
       <c r="J127" s="8">
-        <v>-33.476821999999999</v>
+        <v>-33.491847477900002</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>203</v>
+        <v>297</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="F128" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G128" s="8">
-        <v>349121</v>
+        <v>349853.08270000003</v>
       </c>
       <c r="H128" s="8">
-        <v>6295754</v>
+        <v>6292454.8415999999</v>
       </c>
       <c r="I128" s="8">
-        <v>-70.624222000000003</v>
+        <v>-70.616333350600001</v>
       </c>
       <c r="J128" s="8">
-        <v>-33.467350000000003</v>
+        <v>-33.496905606200002</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="F129" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G129" s="8">
-        <v>350702</v>
+        <v>350235.20659999998</v>
       </c>
       <c r="H129" s="8">
-        <v>6296373</v>
+        <v>6291225.0215999996</v>
       </c>
       <c r="I129" s="8">
-        <v>-70.607108999999994</v>
+        <v>-70.612426839299999</v>
       </c>
       <c r="J129" s="8">
-        <v>-33.46199</v>
+        <v>-33.508047329599997</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>329</v>
+        <v>177</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="F130" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G130" s="8">
-        <v>350837</v>
+        <v>350822.38620000001</v>
       </c>
       <c r="H130" s="8">
-        <v>6297230</v>
+        <v>6290667.6695999997</v>
       </c>
       <c r="I130" s="8">
-        <v>-70.605514999999997</v>
+        <v>-70.606200067900005</v>
       </c>
       <c r="J130" s="8">
-        <v>-33.454276999999998</v>
+        <v>-33.513154569599998</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>196</v>
+        <v>313</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="F131" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G131" s="8">
-        <v>350634</v>
+        <v>351471.27769999998</v>
       </c>
       <c r="H131" s="8">
-        <v>6299031</v>
+        <v>6289869.1039000005</v>
       </c>
       <c r="I131" s="8">
-        <v>-70.607399000000001</v>
+        <v>-70.599348329700007</v>
       </c>
       <c r="J131" s="8">
-        <v>-33.438011000000003</v>
+        <v>-33.520444900900003</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G132" s="8">
+        <v>351723</v>
+      </c>
+      <c r="H132" s="8">
+        <v>6289194</v>
+      </c>
+      <c r="I132" s="8">
+        <v>-70.596748000000005</v>
+      </c>
+      <c r="J132" s="8">
+        <v>-33.526558999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B132" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C132" s="8" t="s">
+      <c r="B133" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G133" s="8">
+        <v>342697</v>
+      </c>
+      <c r="H133" s="8">
+        <v>6293845</v>
+      </c>
+      <c r="I133" s="8">
+        <v>-70.693664999999996</v>
+      </c>
+      <c r="J133" s="8">
+        <v>-33.483631000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G134" s="8">
+        <v>343935</v>
+      </c>
+      <c r="H134" s="8">
+        <v>6294422</v>
+      </c>
+      <c r="I134" s="8">
+        <v>-70.680244000000002</v>
+      </c>
+      <c r="J134" s="8">
+        <v>-33.478606999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G135" s="8">
+        <v>345351</v>
+      </c>
+      <c r="H135" s="8">
+        <v>6294460</v>
+      </c>
+      <c r="I135" s="8">
+        <v>-70.665001000000004</v>
+      </c>
+      <c r="J135" s="8">
+        <v>-33.478470000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G136" s="8">
+        <v>346808</v>
+      </c>
+      <c r="H136" s="8">
+        <v>6294730</v>
+      </c>
+      <c r="I136" s="8">
+        <v>-70.649276999999998</v>
+      </c>
+      <c r="J136" s="8">
+        <v>-33.47625</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G137" s="8">
+        <v>347504</v>
+      </c>
+      <c r="H137" s="8">
+        <v>6294677</v>
+      </c>
+      <c r="I137" s="8">
+        <v>-70.641800000000003</v>
+      </c>
+      <c r="J137" s="8">
+        <v>-33.476821999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G138" s="8">
+        <v>349121</v>
+      </c>
+      <c r="H138" s="8">
+        <v>6295754</v>
+      </c>
+      <c r="I138" s="8">
+        <v>-70.624222000000003</v>
+      </c>
+      <c r="J138" s="8">
+        <v>-33.467350000000003</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G139" s="8">
+        <v>350702</v>
+      </c>
+      <c r="H139" s="8">
+        <v>6296373</v>
+      </c>
+      <c r="I139" s="8">
+        <v>-70.607108999999994</v>
+      </c>
+      <c r="J139" s="8">
+        <v>-33.46199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G140" s="8">
+        <v>350837</v>
+      </c>
+      <c r="H140" s="8">
+        <v>6297230</v>
+      </c>
+      <c r="I140" s="8">
+        <v>-70.605514999999997</v>
+      </c>
+      <c r="J140" s="8">
+        <v>-33.454276999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G141" s="8">
+        <v>350634</v>
+      </c>
+      <c r="H141" s="8">
+        <v>6299031</v>
+      </c>
+      <c r="I141" s="8">
+        <v>-70.607399000000001</v>
+      </c>
+      <c r="J141" s="8">
+        <v>-33.438011000000003</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D142" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="E132" s="8" t="s">
+      <c r="E142" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F132" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G132" s="8">
+      <c r="F142" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G142" s="8">
         <v>350554</v>
       </c>
-      <c r="H132" s="8">
+      <c r="H142" s="8">
         <v>6300779</v>
       </c>
-      <c r="I132" s="8">
+      <c r="I142" s="8">
         <v>-70.607971000000006</v>
       </c>
-      <c r="J132" s="8">
+      <c r="J142" s="8">
         <v>-33.422237000000003</v>
       </c>
     </row>
@@ -5510,7 +5830,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5588,28 +5908,28 @@
         <v>0</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="8">
-        <v>352321.11749999999</v>
+        <v>352580.20539999998</v>
       </c>
       <c r="H9" s="8">
-        <v>6291126.8134000003</v>
+        <v>6286987.3130999999</v>
       </c>
       <c r="I9" s="8">
-        <v>-70.589992891099996</v>
+        <v>-70.587886518900007</v>
       </c>
       <c r="J9" s="8">
-        <v>-33.5092230156</v>
+        <v>-33.546581087100002</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5620,348 +5940,28 @@
         <v>0</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="8">
-        <v>352580.20539999998</v>
+        <v>353404.64059999998</v>
       </c>
       <c r="H10" s="8">
-        <v>6286987.3130999999</v>
+        <v>6282211.523</v>
       </c>
       <c r="I10" s="8">
-        <v>-70.587886518900007</v>
+        <v>-70.579793516899997</v>
       </c>
       <c r="J10" s="8">
-        <v>-33.546581087100002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="8">
-        <v>352717.09539999999</v>
-      </c>
-      <c r="H11" s="8">
-        <v>6286238.0525000002</v>
-      </c>
-      <c r="I11" s="8">
-        <v>-70.586536039899997</v>
-      </c>
-      <c r="J11" s="8">
-        <v>-33.553355401700003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="8">
-        <v>352856.79570000002</v>
-      </c>
-      <c r="H12" s="8">
-        <v>6285355.4007000001</v>
-      </c>
-      <c r="I12" s="8">
-        <v>-70.585177083299996</v>
-      </c>
-      <c r="J12" s="8">
-        <v>-33.561332756600002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="8">
-        <v>353003.5453</v>
-      </c>
-      <c r="H13" s="8">
-        <v>6284455.6363000004</v>
-      </c>
-      <c r="I13" s="8">
-        <v>-70.5837448005</v>
-      </c>
-      <c r="J13" s="8">
-        <v>-33.569465354499997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="8">
-        <v>353404.64059999998</v>
-      </c>
-      <c r="H14" s="8">
-        <v>6282211.523</v>
-      </c>
-      <c r="I14" s="8">
-        <v>-70.579793516899997</v>
-      </c>
-      <c r="J14" s="8">
         <v>-33.589753709900002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="8">
-        <v>350919.43359999999</v>
-      </c>
-      <c r="H15" s="8">
-        <v>6288671.9950000001</v>
-      </c>
-      <c r="I15" s="8">
-        <v>-70.605488003900007</v>
-      </c>
-      <c r="J15" s="8">
-        <v>-33.531161249999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="8">
-        <v>349955.85340000002</v>
-      </c>
-      <c r="H16" s="8">
-        <v>6287544.5532999998</v>
-      </c>
-      <c r="I16" s="8">
-        <v>-70.616050647600005</v>
-      </c>
-      <c r="J16" s="8">
-        <v>-33.541191322300001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="8">
-        <v>346685.47970000003</v>
-      </c>
-      <c r="H17" s="8">
-        <v>6287624.1913000001</v>
-      </c>
-      <c r="I17" s="8">
-        <v>-70.651247928999993</v>
-      </c>
-      <c r="J17" s="8">
-        <v>-33.540008673199999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="8">
-        <v>337167.56170000002</v>
-      </c>
-      <c r="H18" s="8">
-        <v>6293032.9939999999</v>
-      </c>
-      <c r="I18" s="8">
-        <v>-70.752734535900004</v>
-      </c>
-      <c r="J18" s="8">
-        <v>-33.4898370035</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="8">
-        <v>338189.02960000001</v>
-      </c>
-      <c r="H19" s="8">
-        <v>6294434.6138000004</v>
-      </c>
-      <c r="I19" s="8">
-        <v>-70.741490890600005</v>
-      </c>
-      <c r="J19" s="8">
-        <v>-33.4773557137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="8">
-        <v>338505.20730000001</v>
-      </c>
-      <c r="H20" s="8">
-        <v>6296045.7747</v>
-      </c>
-      <c r="I20" s="8">
-        <v>-70.737799367500003</v>
-      </c>
-      <c r="J20" s="8">
-        <v>-33.462877999299998</v>
       </c>
     </row>
   </sheetData>
